--- a/projects/memblobs/memories.xlsx
+++ b/projects/memblobs/memories.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Petriau\Documents\portfolio\projects\memblobs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="3920" windowHeight="1140" activeTab="1"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="3915" windowHeight="1140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Translate" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="541">
   <si>
     <t>Person</t>
   </si>
@@ -804,21 +809,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t xml:space="preserve">      {"cluster":2,"name": "Cara B", "memory": "wtf"},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      {"cluster":2,"name": "", "memory": "alpha"},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      {"cluster":2,"name": "", "memory": "beta"},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      {"cluster":1,"name": "", "memory": "gamma"},</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      {"cluster":1,"name": "", "memory": "delta"}</t>
-  </si>
-  <si>
     <t>"</t>
   </si>
   <si>
@@ -1347,9 +1337,6 @@
     <t>Amy B</t>
   </si>
   <si>
-    <t>Jessic W</t>
-  </si>
-  <si>
     <t>Francesca A</t>
   </si>
   <si>
@@ -1395,18 +1382,12 @@
     <t>Heady nights of music and evenings of talk at Park View Road</t>
   </si>
   <si>
-    <t>Legendary curry feast on Lawrence Street</t>
-  </si>
-  <si>
     <t>Tennis and early Varoufakis in London town</t>
   </si>
   <si>
     <t>Mimi de L</t>
   </si>
   <si>
-    <t>(Very) chance cross-continental Florianopolis encounter, poker into the night by the sea</t>
-  </si>
-  <si>
     <t>And the fluid boundaries of squash ability</t>
   </si>
   <si>
@@ -1497,9 +1478,6 @@
     <t xml:space="preserve">Glasgow Street dissection of a King's Speech </t>
   </si>
   <si>
-    <t>Bohemian prog rockiness</t>
-  </si>
-  <si>
     <t>Smokes on the street with a trenchcoat</t>
   </si>
   <si>
@@ -1518,9 +1496,6 @@
     <t>Newcastle Grand Parade</t>
   </si>
   <si>
-    <t xml:space="preserve">Hitchcock </t>
-  </si>
-  <si>
     <t>South Kensington cafe catch-up</t>
   </si>
   <si>
@@ -1533,9 +1508,6 @@
     <t>Stuart M</t>
   </si>
   <si>
-    <t>Photo deluge from Japan, cycling in the countryside</t>
-  </si>
-  <si>
     <t>Housewarmings of the Finnish sect</t>
   </si>
   <si>
@@ -1551,14 +1523,134 @@
     <t>Talking Pinter</t>
   </si>
   <si>
-    <t>Fjords</t>
+    <t>A party on Royal Terrace with a keyboard and a ballerina, probably talking about Paris</t>
+  </si>
+  <si>
+    <t>(Very) chance cross-continental Florianopolis encounter leading to a poker night by the sea</t>
+  </si>
+  <si>
+    <t>That strategy game you were showing in very early days at Google Campus</t>
+  </si>
+  <si>
+    <t>early Glasgow</t>
+  </si>
+  <si>
+    <t>middle Glasgow</t>
+  </si>
+  <si>
+    <t>late Glasgow</t>
+  </si>
+  <si>
+    <t>early London</t>
+  </si>
+  <si>
+    <t>middle London</t>
+  </si>
+  <si>
+    <t>late London</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Legendary curries on Lawrence Street</t>
+  </si>
+  <si>
+    <t>Navigare necesse est, especially on the Norfolk coast</t>
+  </si>
+  <si>
+    <t>Little brother superman feeding me Feed Me</t>
+  </si>
+  <si>
+    <t>Total War Warhammer character art chat at Trondheim airport</t>
+  </si>
+  <si>
+    <t>Indie pub nights at the Crown</t>
+  </si>
+  <si>
+    <t>Metatron's cub in Yerba Buena embrace</t>
+  </si>
+  <si>
+    <t>Atlas pints with the friendliest beard</t>
+  </si>
+  <si>
+    <t>New London Orchestration</t>
+  </si>
+  <si>
+    <t>Frantically filling in engineering job tests at Park View Road</t>
+  </si>
+  <si>
+    <t>The history boys</t>
+  </si>
+  <si>
+    <t>Roots in bohemian prog rockiness</t>
+  </si>
+  <si>
+    <t>And one of the wildest backstories for a book. Poetry nights at the QMU?</t>
+  </si>
+  <si>
+    <t>From QMU camraderie to a photo deluge from Japan, cycling in the countryside</t>
+  </si>
+  <si>
+    <t>Jessica W</t>
+  </si>
+  <si>
+    <t>Movie making moments</t>
+  </si>
+  <si>
+    <t>Talking translation at West Princes Street</t>
+  </si>
+  <si>
+    <t>Cork lilt</t>
+  </si>
+  <si>
+    <t>Bulgarian</t>
+  </si>
+  <si>
+    <t>Crieff Hydro nights</t>
+  </si>
+  <si>
+    <t>Altona and Golden Pudel. "You only have to look at the Medusa straight on to see her. And she's not deadly. She's beautiful and she's laughing."</t>
+  </si>
+  <si>
+    <t>Megagame day and Mage Knight through the night</t>
+  </si>
+  <si>
+    <t>Primus inter pares (of the triumvirate)</t>
+  </si>
+  <si>
+    <t>Enthusiastically creating fjordgames a table away</t>
+  </si>
+  <si>
+    <t>Honorary Finn hosting the everglorious indie xmas party 2013</t>
+  </si>
+  <si>
+    <t>Enjoying so very many degrees of freedom to crash a ship into asteroids</t>
+  </si>
+  <si>
+    <t>Belfast coffee morning by the hospital</t>
+  </si>
+  <si>
+    <t>Love at first IRC insult</t>
+  </si>
+  <si>
+    <t>~~~~~0</t>
+  </si>
+  <si>
+    <t>Exploring Pollok Park</t>
+  </si>
+  <si>
+    <t>Had lunch at the QMU cantina, definitely</t>
+  </si>
+  <si>
+    <t>Hitchcock night</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,7 +1659,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1577,6 +1669,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1593,16 +1691,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1649,7 +1759,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1681,9 +1791,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1715,6 +1826,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1890,20 +2002,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B183"/>
   <sheetViews>
     <sheetView topLeftCell="A183" workbookViewId="0">
       <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="79.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1911,12 +2023,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1924,7 +2036,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +2044,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1940,12 +2052,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1953,15 +2065,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1969,7 +2081,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1977,7 +2089,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1985,7 +2097,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1993,15 +2105,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2009,17 +2121,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2027,7 +2139,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2035,7 +2147,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2043,7 +2155,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2051,12 +2163,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2064,7 +2176,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2072,7 +2184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2080,7 +2192,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2088,7 +2200,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2096,7 +2208,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2104,7 +2216,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2112,7 +2224,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2120,7 +2232,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2128,17 +2240,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2146,7 +2258,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2154,7 +2266,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2162,76 +2274,76 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2239,7 +2351,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2247,7 +2359,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2255,7 +2367,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2263,7 +2375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2271,7 +2383,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2279,7 +2391,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2287,12 +2399,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2300,7 +2412,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2308,7 +2420,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2316,7 +2428,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2324,17 +2436,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2342,7 +2454,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2350,7 +2462,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2358,7 +2470,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2366,25 +2478,25 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2392,15 +2504,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2408,20 +2520,20 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2429,7 +2541,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2437,30 +2549,30 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2468,7 +2580,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2476,15 +2588,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2492,12 +2604,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2505,7 +2617,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2513,25 +2625,25 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -2539,7 +2651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -2547,12 +2659,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -2560,7 +2672,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -2568,25 +2680,25 @@
         <v>163</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -2594,17 +2706,17 @@
         <v>183</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -2612,32 +2724,32 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -2645,62 +2757,62 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>126</v>
       </c>
@@ -2708,12 +2820,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>128</v>
       </c>
@@ -2721,12 +2833,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>130</v>
       </c>
@@ -2734,7 +2846,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>131</v>
       </c>
@@ -2742,7 +2854,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>132</v>
       </c>
@@ -2750,12 +2862,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>134</v>
       </c>
@@ -2763,12 +2875,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>136</v>
       </c>
@@ -2776,7 +2888,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>137</v>
       </c>
@@ -2784,17 +2896,17 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -2802,7 +2914,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -2810,7 +2922,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -2818,22 +2930,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>148</v>
       </c>
@@ -2841,17 +2953,17 @@
         <v>199</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -2859,7 +2971,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -2867,37 +2979,37 @@
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>216</v>
       </c>
@@ -2905,7 +3017,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>218</v>
       </c>
@@ -2913,7 +3025,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>219</v>
       </c>
@@ -2921,12 +3033,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>222</v>
       </c>
@@ -2934,12 +3046,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>224</v>
       </c>
@@ -2947,7 +3059,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>225</v>
       </c>
@@ -2955,7 +3067,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>226</v>
       </c>
@@ -2963,72 +3075,72 @@
         <v>229</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>244</v>
       </c>
@@ -3036,12 +3148,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>247</v>
       </c>
@@ -3049,17 +3161,17 @@
         <v>204</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>250</v>
       </c>
@@ -3067,17 +3179,17 @@
         <v>251</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>254</v>
       </c>
@@ -3085,12 +3197,12 @@
         <v>255</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>257</v>
       </c>
@@ -3098,7 +3210,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>258</v>
       </c>
@@ -3112,131 +3224,120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>261</v>
       </c>
       <c r="F1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>264</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>529</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A2&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B2&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C2&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":1,"name": "Cara B", "memory": ""},</v>
-      </c>
-      <c r="H2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>{"cluster":1,"name": "Cara B", "memory": "Altona and Golden Pudel. "You only have to look at the Medusa straight on to see her. And she's not deadly. She's beautiful and she's laughing.""},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>537</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" ref="E3:E66" si="0">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A3&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B3&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C3&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":7,"name": "Robin B", "memory": "Erdos "},</v>
-      </c>
-      <c r="H3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>{"cluster":5,"name": "Robin B", "memory": "~~~~~0"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
         <v>170</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Mark V", "memory": "Drinking games in Shoreditch"},</v>
-      </c>
-      <c r="H4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>{"cluster":6,"name": "Mark V", "memory": "Drinking games in Shoreditch"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C5" t="s">
         <v>230</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Vegard M", "memory": "Howling at the story of the guy who kicked down the bathroom stall door to vomit in between a man's legs"},</v>
-      </c>
-      <c r="H5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>{"cluster":5,"name": "Vegard M", "memory": "Howling at the story of the guy who kicked down the bathroom stall door to vomit in between a man's legs"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":3,"name": "Faizee E", "memory": ""},</v>
       </c>
-      <c r="H6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>202</v>
@@ -3245,28 +3346,40 @@
         <f t="shared" si="0"/>
         <v>{"cluster":2,"name": "Jennifer O", "memory": "From cloakroom comrade to squash champion"},</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":4,"name": "Vanessa C", "memory": "Dance Dance Smashing the patriarchy at a retro game night"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>{"cluster":5,"name": "Vanessa C", "memory": "Dance Dance Smashing the patriarchy at a retro game night"},</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C9" t="s">
         <v>185</v>
@@ -3275,157 +3388,190 @@
         <f t="shared" si="0"/>
         <v>{"cluster":3,"name": "Adam F", "memory": "Ragged Mars Volta beside the collapsing bathroom"},</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":2,"name": "Tom B", "memory": "Doublet think"},</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":6,"name": "Olia L", "memory": "St Patrick's day funk, Gladstone picnic panorama"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>{"cluster":7,"name": "Olia L", "memory": "St Patrick's day funk, Gladstone picnic panorama"},</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C12" t="s">
         <v>94</v>
       </c>
       <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Jasmine M", "memory": "Give and Take, pinned to the wall https://vimeo.com/20684095"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>{"cluster":2,"name": "Jasmine M", "memory": "Give and Take, pinned to the wall https://vimeo.com/20684095"},</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":1,"name": "Rachel C", "memory": "Murano street Magners"},</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":1,"name": "Dana M", "memory": "Shy acquaintancing over comparative literature classes, soup in the crypt"},</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Joseph B", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>{"cluster":5,"name": "Joseph B", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>281</v>
+      </c>
+      <c r="C16" t="s">
+        <v>530</v>
       </c>
       <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Darren G", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>{"cluster":5,"name": "Darren G", "memory": "Megagame day and Mage Knight through the night"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>531</v>
       </c>
       <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Taavi T", "memory": "The outstanding trio"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>{"cluster":1,"name": "Taavi T", "memory": "Primus inter pares (of the triumvirate)"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C18" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":4,"name": "Lorenzo C", "memory": "Heady nights of music and evenings of talk at Park View Road"},</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C19" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Christy M", "memory": "Dubstepping down the slopes of Glencoe"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>{"cluster":2,"name": "Christy M", "memory": "Dubstepping down the slopes of Glencoe"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C20" t="s">
         <v>201</v>
@@ -3435,39 +3581,39 @@
         <v>{"cluster":1,"name": "Runa D", "memory": "Nordic Society nights"},</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Emilia W", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>{"cluster":2,"name": "Emilia W", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":1,"name": "Danny A", "memory": "Cheery drinks near Cairncross house"},</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C23" t="s">
         <v>158</v>
@@ -3477,42 +3623,42 @@
         <v>{"cluster":2,"name": "Eimear C", "memory": "Nothing (But Flowers)"},</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":2,"name": "George M", "memory": "Talking Pinter"},</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C25" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Maisie G", "memory": "Legendary curry feast on Lawrence Street"},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>{"cluster":2,"name": "Maisie G", "memory": "Legendary curries on Lawrence Street"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C26" t="s">
         <v>175</v>
@@ -3522,12 +3668,12 @@
         <v>{"cluster":1,"name": "Satu K", "memory": "Finnish exchanges in Glasgow Botanics "},</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C27" t="s">
         <v>176</v>
@@ -3537,27 +3683,27 @@
         <v>{"cluster":5,"name": "Robert R", "memory": "Imprismd "},</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":3,"name": "Apostolos F", "memory": "Tennis and early Varoufakis in London town"},</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C29" t="s">
         <v>171</v>
@@ -3567,12 +3713,12 @@
         <v>{"cluster":1,"name": "Joel S", "memory": "Rubber chicken escalator "},</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
         <v>188</v>
@@ -3582,39 +3728,39 @@
         <v>{"cluster":1,"name": "Anthony B", "memory": "First game of cricket watched, probably bathrobed, Autumn 2005"},</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Simon C", "memory": "Fjords"},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>{"cluster":5,"name": "Simon C", "memory": "Enthusiastically creating fjordgames a table away"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":1,"name": "Mimi de L", "memory": ""},</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C33" t="s">
         <v>208</v>
@@ -3624,243 +3770,258 @@
         <v>{"cluster":5,"name": "Gorm L", "memory": "Indie pub night game theorising and a random encounter in Greenwich"},</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C34" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Liyi Z", "memory": "Sunny graduation show on Granary Square"},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>{"cluster":5,"name": "Liyi Z", "memory": "Sunny graduation show on Granary Square"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C35" t="s">
         <v>190</v>
       </c>
       <c r="E35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Alina P", "memory": "Plum wine and feasting at Collier's Wood"},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>{"cluster":7,"name": "Alina P", "memory": "Plum wine and feasting at Collier's Wood"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Scott L", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>{"cluster":2,"name": "Scott L", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Foziclese C", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>{"cluster":3,"name": "Foziclese C", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>302</v>
+      </c>
+      <c r="C38" t="s">
+        <v>534</v>
       </c>
       <c r="E38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Alan Z", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>{"cluster":5,"name": "Alan Z", "memory": "Enjoying so very many degrees of freedom to crash a ship into asteroids"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C39" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":5,"name": "Geraldo N", "memory": "Cyberpunk 2020, xmas edition"},</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>304</v>
+      </c>
+      <c r="C40" t="s">
+        <v>533</v>
       </c>
       <c r="E40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Simon W", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>{"cluster":5,"name": "Simon W", "memory": "Honorary Finn hosting the everglorious indie xmas party 2013"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" t="s">
+        <v>442</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":4,"name": "Iona I", "memory": "On Sartre from art galleries in Cuenca to the hills of Sheffield"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" t="s">
+        <v>535</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":7,"name": "Diane C", "memory": "Belfast coffee morning by the hospital"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" t="s">
+        <v>467</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":1,"name": "Henry K", "memory": "Exploring Hegel on Religion"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" t="s">
+        <v>538</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":3,"name": "Andrew E", "memory": "Exploring Pollok Park"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" t="s">
+        <v>536</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":5,"name": "Rosie P", "memory": "Love at first IRC insult"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
         <v>310</v>
       </c>
-      <c r="C41" t="s">
-        <v>448</v>
-      </c>
-      <c r="E41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":4,"name": "Iona I", "memory": "On Sartre from art galleries in Cuenca to the hills of Sheffield"},</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C46" t="s">
+        <v>443</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":5,"name": "Yuji K", "memory": "Lucky voice guitar climax"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>311</v>
       </c>
-      <c r="E42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Diane C", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":1,"name": "Ruth C", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
         <v>312</v>
-      </c>
-      <c r="C43" t="s">
-        <v>475</v>
-      </c>
-      <c r="E43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Henry K", "memory": "Exploring Hegel on Religion"},</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>313</v>
-      </c>
-      <c r="E44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Andrew E", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>314</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Rosie P", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" t="s">
-        <v>449</v>
-      </c>
-      <c r="E46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Yuji K", "memory": "Lucky voice guitar climax"},</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>316</v>
-      </c>
-      <c r="E47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Ruth C", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" t="s">
-        <v>317</v>
       </c>
       <c r="C48" t="s">
         <v>209</v>
       </c>
       <c r="E48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Sarah C", "memory": "Being all the young nudes at the Flying Duck"},</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>{"cluster":3,"name": "Sarah C", "memory": "Being all the young nudes at the Flying Duck"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>511</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Robbie G", "memory": "Rolling days on the beaches and knolls of Norfolk"},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>{"cluster":1,"name": "Robbie G", "memory": "Navigare necesse est, especially on the Norfolk coast"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C50" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":1,"name": "Isak A", "memory": "Bookclub"},</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C51" t="s">
         <v>52</v>
@@ -3870,252 +4031,255 @@
         <v>{"cluster":1,"name": "Gregor C", "memory": "Few but precious Das Capital reading group evenings"},</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C52" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":1,"name": "Alice R", "memory": "Waltzing in a water wonderland"},</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C53" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Rachel T", "memory": "South Kensington cafe catch-up"},</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>{"cluster":7,"name": "Rachel T", "memory": "South Kensington cafe catch-up"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C54" t="s">
         <v>159</v>
       </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Rebecca G", "memory": "Running to the Beat!"},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>{"cluster":4,"name": "Rebecca G", "memory": "Running to the Beat!"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Ina S", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>{"cluster":7,"name": "Ina S", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>325</v>
-      </c>
-      <c r="C56" t="s">
-        <v>462</v>
+        <v>320</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Paavo J", "memory": "(Very) chance cross-continental Florianopolis encounter, poker into the night by the sea"},</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>{"cluster":3,"name": "Paavo J", "memory": "(Very) chance cross-continental Florianopolis encounter leading to a poker night by the sea"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C57" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>{"cluster":1,"name": "Sandy B", "memory": "And the fluid boundaries of squash ability"},</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C58" t="s">
         <v>160</v>
       </c>
       <c r="E58" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Giorgios S", "memory": "Psychedelic playlists and jamming on Ruthven lane"},</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>{"cluster":2,"name": "Giorgios S", "memory": "Psychedelic playlists and jamming on Ruthven lane"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" t="s">
+        <v>482</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":2,"name": "Henry B", "memory": "Doublet think"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>324</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":3,"name": "Razan N", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" t="s">
+        <v>539</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":1,"name": "Sara S", "memory": "Had lunch at the QMU cantina, definitely"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>326</v>
+      </c>
+      <c r="C62" t="s">
+        <v>490</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":1,"name": "Thhoomaas A", "memory": "Newcastle Grand Parade"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>327</v>
+      </c>
+      <c r="C63" t="s">
+        <v>540</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>{"cluster":3,"name": "Mira K", "memory": "Hitchcock night"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
         <v>328</v>
-      </c>
-      <c r="C59" t="s">
-        <v>490</v>
-      </c>
-      <c r="E59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Henry B", "memory": "Doublet think"},</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>329</v>
-      </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Razan N", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61" t="s">
-        <v>330</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Sara S", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>331</v>
-      </c>
-      <c r="C62" t="s">
-        <v>499</v>
-      </c>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Thhoomaas A", "memory": "Newcastle Grand Parade"},</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>332</v>
-      </c>
-      <c r="C63" t="s">
-        <v>500</v>
-      </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Mira K", "memory": "Hitchcock "},</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>1</v>
-      </c>
-      <c r="B64" t="s">
-        <v>333</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Claira C", "memory": "Percy French pints"},</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>{"cluster":7,"name": "Claira C", "memory": "Percy French pints"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
+        <v>512</v>
       </c>
       <c r="E65" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Adriano C", "memory": "Vegetarian superman feeding me Feed Me"},</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>{"cluster":1,"name": "Adriano C", "memory": "Little brother superman feeding me Feed Me"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E66" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Jasmine M", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>{"cluster":3,"name": "Jasmine M", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E67" s="2" t="str">
         <f t="shared" ref="E67:E128" si="1">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A67&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B67&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C67&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":1,"name": "Katy F", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>{"cluster":3,"name": "Katy F", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C68" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E68" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Jessica H", "memory": "Warm welcome to London life all the way down to the Frontline Reporters club"},</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>{"cluster":4,"name": "Jessica H", "memory": "Warm welcome to London life all the way down to the Frontline Reporters club"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -4125,69 +4289,69 @@
         <v>{"cluster":1,"name": "Deborah M", "memory": "Offshore coffees and photo walks"},</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C70" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="E70" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Alex G", "memory": "Hub afternoons probing a new and improved theory of capitalism "},</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>{"cluster":3,"name": "Alex G", "memory": "Hub afternoons probing a new and improved theory of capitalism "},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C71" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Gareth Y", "memory": "Fine beer and dialetheism"},</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E72" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Sneha R", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>{"cluster":3,"name": "Sneha R", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C73" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Ciaran L", "memory": "Shouldering an infinite one night stand"},</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C74" t="s">
         <v>194</v>
@@ -4197,22 +4361,22 @@
         <v>{"cluster":1,"name": "Adam K", "memory": "Drums hit at Nice and Sleazy"},</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C75" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Sam W", "memory": "Doublet think"},</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4224,72 +4388,72 @@
         <v>{"cluster":1,"name": "Sophia NB", "memory": ""},</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C77" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Julia R", "memory": "Celtic connections"},</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C78" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Roxana P", "memory": "South bank graffiti analysis"},</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C79" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="E79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Joanne C", "memory": "Wedding photos and pastel bridesmaids"},</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C80" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Simon J", "memory": "Illuminati dominance by Gladstone Park"},</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C81" t="s">
         <v>93</v>
@@ -4299,27 +4463,27 @@
         <v>{"cluster":1,"name": "Martha F", "memory": "The launch of HMS Defender on the Clyde"},</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E82" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Laura W", "memory": "Eng Lit dept lobby rounds round about Finnegans Wake"},</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C83" t="s">
         <v>174</v>
@@ -4329,24 +4493,27 @@
         <v>{"cluster":1,"name": "Rachel M", "memory": "Rocky movie night in Hyndland"},</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>351</v>
+        <v>346</v>
+      </c>
+      <c r="C84" t="s">
+        <v>513</v>
       </c>
       <c r="E84" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Melissa F", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>{"cluster":1,"name": "Melissa F", "memory": "Total War Warhammer character art chat at Trondheim airport"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
         <v>184</v>
@@ -4356,81 +4523,81 @@
         <v>{"cluster":1,"name": "Rachel M", "memory": "Evenings of words and guitars and the flatmate"},</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86" t="s">
+        <v>347</v>
+      </c>
+      <c r="C86" t="s">
+        <v>469</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Ol'ga K", "memory": "Men discovered to be like sand"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>348</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Rhiannon F", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Stuart T", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" t="s">
+        <v>350</v>
+      </c>
+      <c r="C89" t="s">
+        <v>449</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Nermin D", "memory": "Citysalsa surprise"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>351</v>
+      </c>
+      <c r="C90" t="s">
+        <v>514</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Guy K", "memory": "Indie pub nights at the Crown"},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
         <v>352</v>
-      </c>
-      <c r="C86" t="s">
-        <v>477</v>
-      </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Ol'ga K", "memory": "Men discovered to be like sand"},</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>353</v>
-      </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Rhiannon F", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
-        <v>354</v>
-      </c>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Stuart T", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>355</v>
-      </c>
-      <c r="C89" t="s">
-        <v>455</v>
-      </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Nermin D", "memory": "Citysalsa surprise"},</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>356</v>
-      </c>
-      <c r="C90" t="s">
-        <v>161</v>
-      </c>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Guy K", "memory": "Indie pub night "},</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>357</v>
       </c>
       <c r="C91" t="s">
         <v>195</v>
@@ -4440,42 +4607,42 @@
         <v>{"cluster":1,"name": "Lil R", "memory": "Red Crossings"},</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C92" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Jenny M", "memory": "Communism will win"},</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C93" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Paul G", "memory": "Science Made Us Robots at New Cross Inn"},</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C94" t="s">
         <v>163</v>
@@ -4485,51 +4652,54 @@
         <v>{"cluster":1,"name": "Megan W", "memory": "Bill Nighy, casually"},</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Lindsay G", "memory": ""},</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="C96" t="s">
+        <v>500</v>
       </c>
       <c r="E96" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Kate M", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>{"cluster":1,"name": "Kate M", "memory": "A party on Royal Terrace with a keyboard and a ballerina, probably talking about Paris"},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C97" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Paola V", "memory": "Citysalsa surprise"},</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C98" t="s">
         <v>183</v>
@@ -4539,24 +4709,24 @@
         <v>{"cluster":1,"name": "Donald C", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room"},</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Yosef H", "memory": ""},</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C100" t="s">
         <v>164</v>
@@ -4566,63 +4736,66 @@
         <v>{"cluster":1,"name": "George C", "memory": "QMU "},</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C101" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E101" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Isabel S", "memory": "Hauling planks to the allotment by train"},</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>368</v>
+        <v>363</v>
+      </c>
+      <c r="C102" t="s">
+        <v>502</v>
       </c>
       <c r="E102" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Matt D", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>{"cluster":5,"name": "Matt D", "memory": "That strategy game you were showing in very early days at Google Campus"},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E103" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Ioanna B", "memory": ""},</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E104" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Andrew B", "memory": ""},</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C105" t="s">
         <v>180</v>
@@ -4632,180 +4805,192 @@
         <v>{"cluster":1,"name": "Steve H", "memory": "Summertime barbecue and Rocket League"},</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="C106" t="s">
+        <v>515</v>
       </c>
       <c r="E106" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Erlend G", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>{"cluster":1,"name": "Erlend G", "memory": "Metatron's cub in Yerba Buena embrace"},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C107" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E107" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":6,"name": "Catalin G", "memory": "Normand travel tales"},</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E108" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Celia B", "memory": ""},</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="C109" t="s">
+        <v>516</v>
       </c>
       <c r="E109" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Gerard D", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>{"cluster":1,"name": "Gerard D", "memory": "Atlas pints with the friendliest beard"},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E110" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Daniel M", "memory": ""},</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
       <c r="B111" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E111" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":4,"name": "Kareem A", "memory": ""},</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E112" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Joanne M", "memory": ""},</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C113" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E113" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":4,"name": "Chris E", "memory": "Loving Om"},</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4</v>
       </c>
       <c r="B114" t="s">
+        <v>375</v>
+      </c>
+      <c r="C114" t="s">
+        <v>483</v>
+      </c>
+      <c r="E114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":4,"name": "Aniko S", "memory": "Translation talk at the CCA"},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>376</v>
+      </c>
+      <c r="C115" t="s">
+        <v>517</v>
+      </c>
+      <c r="E115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Hani A", "memory": "New London Orchestration"},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" t="s">
+        <v>377</v>
+      </c>
+      <c r="C116" t="s">
+        <v>519</v>
+      </c>
+      <c r="E116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Euan M", "memory": "The history boys"},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117" t="s">
+        <v>518</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Alejandro G", "memory": "Frantically filling in engineering job tests at Park View Road"},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" t="s">
+        <v>379</v>
+      </c>
+      <c r="E118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Sebastian C", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
         <v>380</v>
-      </c>
-      <c r="C114" t="s">
-        <v>491</v>
-      </c>
-      <c r="E114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":4,"name": "Aniko S", "memory": "Translation talk at the CCA"},</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115" t="s">
-        <v>381</v>
-      </c>
-      <c r="E115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Hani A", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>382</v>
-      </c>
-      <c r="E116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Euan M", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>383</v>
-      </c>
-      <c r="C117" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Alejandro G", "memory": "Filling in engineering job tests at Park View Road"},</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>1</v>
-      </c>
-      <c r="B118" t="s">
-        <v>384</v>
-      </c>
-      <c r="E118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Sebastian C", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119" t="s">
-        <v>385</v>
       </c>
       <c r="C119" t="s">
         <v>181</v>
@@ -4815,27 +5000,27 @@
         <v>{"cluster":1,"name": "Melenia S", "memory": "Housewarming party "},</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C120" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E120" s="2" t="str">
         <f t="shared" si="1"/>
         <v>{"cluster":1,"name": "Radek K", "memory": "Smokes on the street with a trenchcoat"},</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C121" t="s">
         <v>182</v>
@@ -4845,12 +5030,12 @@
         <v>{"cluster":4,"name": "Gunes K", "memory": "A new year's quantum tube ride and drinks in Gotica"},</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
       <c r="B122" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C122" t="s">
         <v>166</v>
@@ -4860,12 +5045,12 @@
         <v>{"cluster":1,"name": "Niki S", "memory": "Views from Assange to Zizek"},</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
       <c r="B123" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C123" t="s">
         <v>201</v>
@@ -4875,123 +5060,120 @@
         <v>{"cluster":1,"name": "Henrietta H", "memory": "Nordic Society nights"},</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
       <c r="B124" t="s">
+        <v>385</v>
+      </c>
+      <c r="E124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Serena D", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" t="s">
+        <v>484</v>
+      </c>
+      <c r="E125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Csenge L", "memory": "Glasgow Street dissection of a King's Speech "},</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
+        <v>387</v>
+      </c>
+      <c r="E126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Johannes S", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" t="s">
+        <v>471</v>
+      </c>
+      <c r="E127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Freya C", "memory": "The well-tread Soviet corners of the library tower, vinyls in the woodlands "},</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
+        <v>389</v>
+      </c>
+      <c r="C128" t="s">
+        <v>472</v>
+      </c>
+      <c r="E128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Stefania L", "memory": "Initiations into witchcraft"},</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
         <v>390</v>
-      </c>
-      <c r="E124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Serena D", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125" t="s">
-        <v>391</v>
-      </c>
-      <c r="C125" t="s">
-        <v>492</v>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Csenge L", "memory": "Glasgow Street dissection of a King's Speech "},</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126" t="s">
-        <v>392</v>
-      </c>
-      <c r="E126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Johannes S", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127">
-        <v>1</v>
-      </c>
-      <c r="B127" t="s">
-        <v>393</v>
-      </c>
-      <c r="C127" t="s">
-        <v>479</v>
-      </c>
-      <c r="E127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Freya C", "memory": "The well-tread Soviet corners of the library tower, vinyls in the woodlands "},</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128">
-        <v>1</v>
-      </c>
-      <c r="B128" t="s">
-        <v>394</v>
-      </c>
-      <c r="C128" t="s">
-        <v>480</v>
-      </c>
-      <c r="E128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Stefania L", "memory": "Initiations into witchcraft"},</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129">
-        <v>1</v>
-      </c>
-      <c r="B129" t="s">
-        <v>395</v>
       </c>
       <c r="E129" s="2" t="str">
         <f t="shared" ref="E129:E179" si="2">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A129&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B129&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C129&amp;$G$1&amp;"},"</f>
         <v>{"cluster":1,"name": "Jennifer B", "memory": ""},</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C130" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="E130" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Marie D", "memory": "Bohemian prog rockiness"},</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>{"cluster":3,"name": "Marie D", "memory": "Roots in bohemian prog rockiness"},</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>397</v>
-      </c>
-      <c r="C131" t="s">
-        <v>141</v>
+        <v>392</v>
       </c>
       <c r="E131" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Sian A", "memory": "Ship launch"},</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>{"cluster":1,"name": "Sian A", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
       <c r="B132" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C132" t="s">
         <v>197</v>
@@ -5001,12 +5183,12 @@
         <v>{"cluster":1,"name": "Ally M", "memory": "Best asymmetrical haircut to ever move house with"},</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C133" t="s">
         <v>144</v>
@@ -5016,36 +5198,39 @@
         <v>{"cluster":1,"name": "Peter T", "memory": "Tchai Ovna chess afternoon"},</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E134" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":3,"name": "Nadia B", "memory": ""},</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="C135" t="s">
+        <v>525</v>
       </c>
       <c r="E135" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Nina E", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>{"cluster":3,"name": "Nina E", "memory": "Talking translation at West Princes Street"},</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C136" t="s">
         <v>199</v>
@@ -5055,171 +5240,177 @@
         <v>{"cluster":3,"name": "Rebecca D", "memory": "Walking near Red Cross"},</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C137" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E137" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "David F", "memory": "The considerate stories on your blog"},</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>{"cluster":3,"name": "David F", "memory": "The considerate stories on your blog"},</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E138" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Pawel L", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>{"cluster":3,"name": "Pawel L", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C139" t="s">
         <v>168</v>
       </c>
       <c r="E139" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Bahareh M", "memory": "Teatimes at Tchai Ovna"},</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>{"cluster":3,"name": "Bahareh M", "memory": "Teatimes at Tchai Ovna"},</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C140" t="s">
         <v>169</v>
       </c>
       <c r="E140" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Nicholas A", "memory": "Science and scifi at the housewarming near Charing Cross"},</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>{"cluster":3,"name": "Nicholas A", "memory": "Science and scifi at the housewarming near Charing Cross"},</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>407</v>
+        <v>402</v>
+      </c>
+      <c r="C141" t="s">
+        <v>526</v>
       </c>
       <c r="E141" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Brenda L", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>{"cluster":3,"name": "Brenda L", "memory": "Cork lilt"},</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E142" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Emilie G", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>{"cluster":3,"name": "Emilie G", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E143" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Katharina K", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>{"cluster":3,"name": "Katharina K", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E144" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Louise B", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>{"cluster":3,"name": "Louise B", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E145" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Cari A", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>{"cluster":3,"name": "Cari A", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="C146" t="s">
+        <v>229</v>
       </c>
       <c r="E146" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "James N", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>{"cluster":2,"name": "James N", "memory": "Newman's America"},</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C147" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E147" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":3,"name": "Jess B", "memory": "Kersland street sonic booms"},</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C148" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="E148" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":3,"name": "Nic R", "memory": "Kersland street movie making"},</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C149" t="s">
         <v>221</v>
@@ -5229,51 +5420,54 @@
         <v>{"cluster":4,"name": "Andromeda T", "memory": "Poetry read in the teahouse dark and warm"},</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B150" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E150" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Richard G", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>{"cluster":2,"name": "Richard G", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C151" t="s">
         <v>183</v>
       </c>
       <c r="E151" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Neil M", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room"},</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>{"cluster":2,"name": "Neil M", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room"},</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>418</v>
+        <v>413</v>
+      </c>
+      <c r="C152" t="s">
+        <v>527</v>
       </c>
       <c r="E152" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Petya T", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>{"cluster":3,"name": "Petya T", "memory": "Bulgarian"},</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C153" t="s">
         <v>227</v>
@@ -5283,213 +5477,225 @@
         <v>{"cluster":1,"name": "David A", "memory": "Philosophy classes"},</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C154" t="s">
         <v>228</v>
       </c>
       <c r="E154" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Ljubo B", "memory": "Kierkegaard in summer"},</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>{"cluster":2,"name": "Ljubo B", "memory": "Kierkegaard in summer"},</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C155" t="s">
         <v>229</v>
       </c>
       <c r="E155" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Frazer G", "memory": "Newman's America"},</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>{"cluster":2,"name": "Frazer G", "memory": "Newman's America"},</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>422</v>
+        <v>417</v>
+      </c>
+      <c r="C156" t="s">
+        <v>528</v>
       </c>
       <c r="E156" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Azra K", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>{"cluster":3,"name": "Azra K", "memory": "Crieff Hydro nights"},</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E157" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Stefania R", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>{"cluster":2,"name": "Stefania R", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="C158" t="s">
+        <v>524</v>
       </c>
       <c r="E158" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Dana G", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>{"cluster":3,"name": "Dana G", "memory": "Movie making moments"},</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E159" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "John M", "memory": ""},</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C160" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E160" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "Maciej H", "memory": "Magically early morning hellos on Byres' Road"},</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B161" t="s">
-        <v>427</v>
+        <v>422</v>
+      </c>
+      <c r="C161" t="s">
+        <v>229</v>
       </c>
       <c r="E161" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Annabel S", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>{"cluster":2,"name": "Annabel S", "memory": "Newman's America"},</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C162" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E162" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "Rob J", "memory": "GoldenEye at the Joneses"},</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C163" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E163" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "Roosa R", "memory": "Eurotrash party popping"},</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2</v>
       </c>
       <c r="B164" t="s">
-        <v>430</v>
+        <v>425</v>
+      </c>
+      <c r="C164" t="s">
+        <v>229</v>
       </c>
       <c r="E164" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Robert J", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>{"cluster":2,"name": "Robert J", "memory": "Newman's America"},</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C165" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E165" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "Kieran H", "memory": "Revue around Colebrooke"},</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C166" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E166" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":2,"name": "Adam Fa", "memory": "Newcastle house party. Talking late and sleeping on the floor"},</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E167" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":2,"name": "George S", "memory": ""},</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E168" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Pascale F", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>{"cluster":3,"name": "Pascale F", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C169" t="s">
         <v>245</v>
@@ -5499,153 +5705,156 @@
         <v>{"cluster":3,"name": "Helen R", "memory": "Candy store smiles off Byres' road"},</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B170" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E170" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Tessa F", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>{"cluster":2,"name": "Tessa F", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C171" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="E171" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":3,"name": "Kyle T", "memory": "Lit in comp lit"},</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C172" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E172" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "Maitiu C", "memory": "Pre-historical catch-ups near WILT"},</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E173" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Euan M", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>{"cluster":2,"name": "Euan M", "memory": ""},</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B174" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C174" t="s">
         <v>251</v>
       </c>
       <c r="E174" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Eileen Y", "memory": "Your mother opting to use her voice over the buzzer as the most effective way to get into the, from the street to our second floor flat "},</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>{"cluster":2,"name": "Eileen Y", "memory": "Your mother opting to use her voice over the buzzer as the most effective way to get into the, from the street to our second floor flat "},</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B175" t="s">
-        <v>439</v>
+        <v>434</v>
+      </c>
+      <c r="C175" t="s">
+        <v>521</v>
       </c>
       <c r="E175" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "James F", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>{"cluster":2,"name": "James F", "memory": "And one of the wildest backstories for a book. Poetry nights at the QMU?"},</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2</v>
       </c>
       <c r="B176" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C176" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="E176" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":2,"name": "Jarkko I", "memory": "Housewarmings of the Finnish sect"},</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C177" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E177" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "Joe W", "memory": "Protesting for tutor and teacher rights down by Dumbarton Road"},</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C178" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E178" s="2" t="str">
         <f t="shared" si="2"/>
         <v>{"cluster":1,"name": "Amy B", "memory": "Fencing off 2005"},</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="C179" t="s">
         <v>259</v>
       </c>
       <c r="E179" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Jessic W", "memory": "Exploring Edinburgh of all places in about 2006"},</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>{"cluster":1,"name": "Jessica W", "memory": "Exploring Edinburgh of all places in about 2006"},</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C180" t="s">
         <v>260</v>
@@ -5655,33 +5864,34 @@
         <v>{"cluster":1,"name": "Francesca A", "memory": "Refugeed on your London floor with the drumkit in 2008 "},</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2</v>
       </c>
       <c r="B181" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C181" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="E181" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{"cluster":2,"name": "Stuart M", "memory": "Photo deluge from Japan, cycling in the countryside"},</v>
+        <v>{"cluster":2,"name": "Stuart M", "memory": "From QMU camraderie to a photo deluge from Japan, cycling in the countryside"},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects/memblobs/memories.xlsx
+++ b/projects/memblobs/memories.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Translate" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Translate!$A$1:$E$172</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="578">
   <si>
     <t>Person</t>
   </si>
@@ -1184,9 +1187,6 @@
     <t>Csenge L</t>
   </si>
   <si>
-    <t>Johannes S</t>
-  </si>
-  <si>
     <t>Freya C</t>
   </si>
   <si>
@@ -1199,18 +1199,12 @@
     <t>Marie D</t>
   </si>
   <si>
-    <t>Sian A</t>
-  </si>
-  <si>
     <t>Ally M</t>
   </si>
   <si>
     <t>Peter T</t>
   </si>
   <si>
-    <t>Nadia B</t>
-  </si>
-  <si>
     <t>Nina E</t>
   </si>
   <si>
@@ -1220,9 +1214,6 @@
     <t>David F</t>
   </si>
   <si>
-    <t>Pawel L</t>
-  </si>
-  <si>
     <t>Bahareh M</t>
   </si>
   <si>
@@ -1262,9 +1253,6 @@
     <t>Neil M</t>
   </si>
   <si>
-    <t>Petya T</t>
-  </si>
-  <si>
     <t>David A</t>
   </si>
   <si>
@@ -1277,9 +1265,6 @@
     <t>Azra K</t>
   </si>
   <si>
-    <t>Stefania R</t>
-  </si>
-  <si>
     <t>Dana G</t>
   </si>
   <si>
@@ -1313,9 +1298,6 @@
     <t>Helen R</t>
   </si>
   <si>
-    <t>Tessa F</t>
-  </si>
-  <si>
     <t>Kyle T</t>
   </si>
   <si>
@@ -1418,15 +1400,9 @@
     <t>The considerate stories on your blog</t>
   </si>
   <si>
-    <t>Celtic connections</t>
-  </si>
-  <si>
     <t>Waltzing in a water wonderland</t>
   </si>
   <si>
-    <t>Exploring Hegel on Religion</t>
-  </si>
-  <si>
     <t>Sunny graduation show on Granary Square</t>
   </si>
   <si>
@@ -1439,9 +1415,6 @@
     <t xml:space="preserve">The well-tread Soviet corners of the library tower, vinyls in the woodlands </t>
   </si>
   <si>
-    <t>Initiations into witchcraft</t>
-  </si>
-  <si>
     <t>Kersland street movie making</t>
   </si>
   <si>
@@ -1454,21 +1427,12 @@
     <t>South bank graffiti analysis</t>
   </si>
   <si>
-    <t>Hauling planks to the allotment by train</t>
-  </si>
-  <si>
     <t>Communism will win</t>
   </si>
   <si>
-    <t>Lit in comp lit</t>
-  </si>
-  <si>
     <t>St Patrick's day funk, Gladstone picnic panorama</t>
   </si>
   <si>
-    <t>Murano street Magners</t>
-  </si>
-  <si>
     <t>Doublet think</t>
   </si>
   <si>
@@ -1493,36 +1457,21 @@
     <t xml:space="preserve">Hub afternoons probing a new and improved theory of capitalism </t>
   </si>
   <si>
-    <t>Newcastle Grand Parade</t>
-  </si>
-  <si>
     <t>South Kensington cafe catch-up</t>
   </si>
   <si>
-    <t>Bookclub</t>
-  </si>
-  <si>
     <t>Cheery drinks near Cairncross house</t>
   </si>
   <si>
     <t>Stuart M</t>
   </si>
   <si>
-    <t>Housewarmings of the Finnish sect</t>
-  </si>
-  <si>
     <t>Adam Fa</t>
   </si>
   <si>
     <t>Newcastle house party. Talking late and sleeping on the floor</t>
   </si>
   <si>
-    <t>Dance Dance Smashing the patriarchy at a retro game night</t>
-  </si>
-  <si>
-    <t>Talking Pinter</t>
-  </si>
-  <si>
     <t>A party on Royal Terrace with a keyboard and a ballerina, probably talking about Paris</t>
   </si>
   <si>
@@ -1601,12 +1550,6 @@
     <t>Talking translation at West Princes Street</t>
   </si>
   <si>
-    <t>Cork lilt</t>
-  </si>
-  <si>
-    <t>Bulgarian</t>
-  </si>
-  <si>
     <t>Crieff Hydro nights</t>
   </si>
   <si>
@@ -1628,22 +1571,193 @@
     <t>Enjoying so very many degrees of freedom to crash a ship into asteroids</t>
   </si>
   <si>
-    <t>Belfast coffee morning by the hospital</t>
-  </si>
-  <si>
     <t>Love at first IRC insult</t>
   </si>
   <si>
     <t>~~~~~0</t>
   </si>
   <si>
-    <t>Exploring Pollok Park</t>
-  </si>
-  <si>
     <t>Had lunch at the QMU cantina, definitely</t>
   </si>
   <si>
     <t>Hitchcock night</t>
+  </si>
+  <si>
+    <t>Warm, warm welcome to London life from Camden all the way down to the Frontline Reporters club</t>
+  </si>
+  <si>
+    <t>Collegial nights in the QMU lobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaking bread at Empress place </t>
+  </si>
+  <si>
+    <t>Our walks to the big Tesco, your songs south of the river</t>
+  </si>
+  <si>
+    <t>An afternoon from Assange to Zizek</t>
+  </si>
+  <si>
+    <t>A Glasgow party with two Italian friends</t>
+  </si>
+  <si>
+    <t>Easy Argyle street mornings with the respective ladies</t>
+  </si>
+  <si>
+    <t>House parties of the Finnish sect</t>
+  </si>
+  <si>
+    <t>Moorgate coffee and walk, Borgesian dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murano street Magners </t>
+  </si>
+  <si>
+    <t>Newcastle Grand Parader</t>
+  </si>
+  <si>
+    <t>Best ever asymmetrical haircut for moving house using a pram</t>
+  </si>
+  <si>
+    <t>Hauling planks to that allotment by train</t>
+  </si>
+  <si>
+    <t>Buddhism was involved</t>
+  </si>
+  <si>
+    <t>Gleefully pithy dispatches from Asia</t>
+  </si>
+  <si>
+    <t>The cultural evenings of Normand Gardens</t>
+  </si>
+  <si>
+    <t>Sunny pints with the brother around 2010</t>
+  </si>
+  <si>
+    <t>Boyd Orr banter</t>
+  </si>
+  <si>
+    <t>Soul billionaire canal gun holster photoshoot</t>
+  </si>
+  <si>
+    <t>The Moonzooka song</t>
+  </si>
+  <si>
+    <t>FB camraderie London doldrums</t>
+  </si>
+  <si>
+    <t>Neo-Mexican space-punk racing</t>
+  </si>
+  <si>
+    <t>Xmas party and gin night at the Red Cross headquarters</t>
+  </si>
+  <si>
+    <t>Oman Court antipodean parties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea house poetry nights </t>
+  </si>
+  <si>
+    <t>Tales of Mexico City</t>
+  </si>
+  <si>
+    <t>Showstealing the Robbers</t>
+  </si>
+  <si>
+    <t>Through-going Irish-American friendliness</t>
+  </si>
+  <si>
+    <t>Celtic connections. Probably the first person I spoke to on the master's course</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>RCA readings and wine and beer</t>
+  </si>
+  <si>
+    <t>Scandi xmas architecture</t>
+  </si>
+  <si>
+    <t>Reassuring mellowness in class</t>
+  </si>
+  <si>
+    <t>Hackney vodka nights</t>
+  </si>
+  <si>
+    <t>Talking Pinter angry hilarious</t>
+  </si>
+  <si>
+    <t>Exploring Pollok Park with the most enviable Scottish accent</t>
+  </si>
+  <si>
+    <t>An introduction to the world of maps from the Moorgate Murray Hewitt</t>
+  </si>
+  <si>
+    <t>Remote initiations into witchcraft</t>
+  </si>
+  <si>
+    <t>House pints near Queen Margaret Drive with bright foreheads</t>
+  </si>
+  <si>
+    <t>Jordanian sensemaker</t>
+  </si>
+  <si>
+    <t>That happy Greek unit 2009-10</t>
+  </si>
+  <si>
+    <t>In comp lit lit</t>
+  </si>
+  <si>
+    <t>Facebook meme machine</t>
+  </si>
+  <si>
+    <t>Planes above, paintings beyond</t>
+  </si>
+  <si>
+    <t>Powerpuff sister</t>
+  </si>
+  <si>
+    <t>Freundliche Augen</t>
+  </si>
+  <si>
+    <t>Classic fringe</t>
+  </si>
+  <si>
+    <t>Dance Dance Smashing the patriarchy at the retro game night</t>
+  </si>
+  <si>
+    <t>Progressing towards knowledge in Dudley's seminars</t>
+  </si>
+  <si>
+    <t>Bright Belfast coffee morning by the hospital</t>
+  </si>
+  <si>
+    <t>Quotes notched to each cell, rhinally unpackable &amp; routing to prynne, metres finger counted</t>
+  </si>
+  <si>
+    <t>Scifi aligned minds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warming that London house </t>
+  </si>
+  <si>
+    <t>An introductin to the Cork lilt between classes</t>
+  </si>
+  <si>
+    <t>And the Kaskeala connection</t>
+  </si>
+  <si>
+    <t>Gifts of Kierkegaard in Summer</t>
+  </si>
+  <si>
+    <t>A new year's quantum tube ride and drinks in Barri Gotic</t>
+  </si>
+  <si>
+    <t>Evenings of words and guitars and the flatmate towering above Byres Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immortal rubber chicken escalator </t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2184,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2110,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2408,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2307,7 +2421,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2335,7 +2449,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2493,7 +2607,7 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2509,7 +2623,7 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2530,7 +2644,7 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2564,7 +2678,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2593,7 +2707,7 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2754,7 @@
         <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2695,7 +2809,7 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3225,21 +3339,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O181"/>
+  <dimension ref="A1:P172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="3" max="3" width="122" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>265</v>
       </c>
@@ -3249,7 +3363,9 @@
       <c r="C1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>548</v>
+      </c>
       <c r="E1" s="3" t="s">
         <v>261</v>
       </c>
@@ -3260,7 +3376,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3268,14 +3384,18 @@
         <v>264</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>529</v>
+        <v>509</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(B2,1)&amp;MID(B2,FIND(" ",B2)+1,1)</f>
+        <v>CB</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f>"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A2&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B2&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C2&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":1,"name": "Cara B", "memory": "Altona and Golden Pudel. "You only have to look at the Medusa straight on to see her. And she's not deadly. She's beautiful and she's laughing.""},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <f>"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A2&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B2&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C2&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D2&amp;$G$1&amp;"},"</f>
+        <v>{"cluster":1,"name": "Cara B", "memory": "Altona and Golden Pudel. "You only have to look at the Medusa straight on to see her. And she's not deadly. She's beautiful and she's laughing."","id":"CB"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -3283,29 +3403,37 @@
         <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>516</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">LEFT(B3,1)&amp;MID(B3,FIND(" ",B3)+1,1)</f>
+        <v>RB</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" ref="E3:E66" si="0">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A3&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B3&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C3&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":5,"name": "Robin B", "memory": "~~~~~0"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f>"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A3&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B3&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C3&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D3&amp;$G$1&amp;"},"</f>
+        <v>{"cluster":5,"name": "Robin B", "memory": "~~~~~0","id":"RB"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>269</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>552</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>MV</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":6,"name": "Mark V", "memory": "Drinking games in Shoreditch"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E4:E67" si="1">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A4&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B4&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C4&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D4&amp;$G$1&amp;"},"</f>
+        <v>{"cluster":5,"name": "Mark V", "memory": "Hackney vodka nights","id":"MV"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3315,24 +3443,35 @@
       <c r="C5" t="s">
         <v>230</v>
       </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>VM</v>
+      </c>
       <c r="E5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Vegard M", "memory": "Howling at the story of the guy who kicked down the bathroom stall door to vomit in between a man's legs"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Vegard M", "memory": "Howling at the story of the guy who kicked down the bathroom stall door to vomit in between a man's legs","id":"VM"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>271</v>
       </c>
+      <c r="C6" t="s">
+        <v>537</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>FE</v>
+      </c>
       <c r="E6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Faizee E", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Faizee E", "memory": "Soul billionaire canal gun holster photoshoot","id":"FE"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3342,18 +3481,26 @@
       <c r="C7" t="s">
         <v>202</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>JO</v>
+      </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Jennifer O", "memory": "From cloakroom comrade to squash champion"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Jennifer O", "memory": "From cloakroom comrade to squash champion","id":"JO"},</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="P7">
+        <f>COUNTIF(A:A,N7)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3361,20 +3508,28 @@
         <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>498</v>
+        <v>566</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>VC</v>
       </c>
       <c r="E8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Vanessa C", "memory": "Dance Dance Smashing the patriarchy at a retro game night"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Vanessa C", "memory": "Dance Dance Smashing the patriarchy at the retro game night","id":"VC"},</v>
       </c>
       <c r="N8">
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+      <c r="P8">
+        <f>COUNTIF(A:A,N8)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3384,18 +3539,26 @@
       <c r="C9" t="s">
         <v>185</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>AF</v>
+      </c>
       <c r="E9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Adam F", "memory": "Ragged Mars Volta beside the collapsing bathroom"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Adam F", "memory": "Ragged Mars Volta beside the collapsing bathroom","id":"AF"},</v>
       </c>
       <c r="N9">
         <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="P9">
+        <f>COUNTIF(A:A,N9)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3403,20 +3566,28 @@
         <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>469</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>TB</v>
       </c>
       <c r="E10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Tom B", "memory": "Doublet think"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Tom B", "memory": "Doublet think","id":"TB"},</v>
       </c>
       <c r="N10">
         <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+      <c r="P10">
+        <f>COUNTIF(A:A,N10)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3424,20 +3595,28 @@
         <v>276</v>
       </c>
       <c r="C11" t="s">
-        <v>480</v>
+        <v>468</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>OL</v>
       </c>
       <c r="E11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Olia L", "memory": "St Patrick's day funk, Gladstone picnic panorama"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":7,"name": "Olia L", "memory": "St Patrick's day funk, Gladstone picnic panorama","id":"OL"},</v>
       </c>
       <c r="N11">
         <v>5</v>
       </c>
       <c r="O11" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="P11">
+        <f>COUNTIF(A:A,N11)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3447,18 +3626,26 @@
       <c r="C12" t="s">
         <v>94</v>
       </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>JM</v>
+      </c>
       <c r="E12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Jasmine M", "memory": "Give and Take, pinned to the wall https://vimeo.com/20684095"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Jasmine M", "memory": "Give and Take, pinned to the wall https://vimeo.com/20684095","id":"JM"},</v>
       </c>
       <c r="N12">
         <v>6</v>
       </c>
       <c r="O12" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+      <c r="P12">
+        <f>COUNTIF(A:A,N12)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3466,20 +3653,28 @@
         <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>481</v>
+        <v>528</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>RC</v>
       </c>
       <c r="E13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Rachel C", "memory": "Murano street Magners"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Rachel C", "memory": "Murano street Magners ","id":"RC"},</v>
       </c>
       <c r="N13">
         <v>7</v>
       </c>
       <c r="O13" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+      <c r="P13">
+        <f>COUNTIF(A:A,N13)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3487,26 +3682,37 @@
         <v>279</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>443</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>DM</v>
       </c>
       <c r="E14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Dana M", "memory": "Shy acquaintancing over comparative literature classes, soup in the crypt"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Dana M", "memory": "Shy acquaintancing over comparative literature classes, soup in the crypt","id":"DM"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>280</v>
       </c>
+      <c r="C15" t="s">
+        <v>540</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>JB</v>
+      </c>
       <c r="E15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Joseph B", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Joseph B", "memory": "Neo-Mexican space-punk racing","id":"JB"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3514,11 +3720,15 @@
         <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>530</v>
+        <v>510</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>DG</v>
       </c>
       <c r="E16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Darren G", "memory": "Megagame day and Mage Knight through the night"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Darren G", "memory": "Megagame day and Mage Knight through the night","id":"DG"},</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3529,11 +3739,15 @@
         <v>282</v>
       </c>
       <c r="C17" t="s">
-        <v>531</v>
+        <v>511</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>TT</v>
       </c>
       <c r="E17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Taavi T", "memory": "Primus inter pares (of the triumvirate)"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Taavi T", "memory": "Primus inter pares (of the triumvirate)","id":"TT"},</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3544,11 +3758,15 @@
         <v>283</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
+        <v>445</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>LC</v>
       </c>
       <c r="E18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":4,"name": "Lorenzo C", "memory": "Heady nights of music and evenings of talk at Park View Road"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":4,"name": "Lorenzo C", "memory": "Heady nights of music and evenings of talk at Park View Road","id":"LC"},</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3559,16 +3777,20 @@
         <v>284</v>
       </c>
       <c r="C19" t="s">
-        <v>451</v>
+        <v>444</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>CM</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Christy M", "memory": "Dubstepping down the slopes of Glencoe"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Christy M", "memory": "Dubstepping down the slopes of Glencoe","id":"CM"},</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>285</v>
@@ -3576,9 +3798,13 @@
       <c r="C20" t="s">
         <v>201</v>
       </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>RD</v>
+      </c>
       <c r="E20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Runa D", "memory": "Nordic Society nights"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Runa D", "memory": "Nordic Society nights","id":"RD"},</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,24 +3814,35 @@
       <c r="B21" t="s">
         <v>286</v>
       </c>
+      <c r="C21" t="s">
+        <v>549</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>EW</v>
+      </c>
       <c r="E21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Emilia W", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Emilia W", "memory": "RCA readings and wine and beer","id":"EW"},</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>493</v>
+        <v>478</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Danny A", "memory": "Cheery drinks near Cairncross house"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Danny A", "memory": "Cheery drinks near Cairncross house","id":"DA"},</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,9 +3855,13 @@
       <c r="C23" t="s">
         <v>158</v>
       </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>EC</v>
+      </c>
       <c r="E23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Eimear C", "memory": "Nothing (But Flowers)"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Eimear C", "memory": "Nothing (But Flowers)","id":"EC"},</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3631,11 +3872,15 @@
         <v>289</v>
       </c>
       <c r="C24" t="s">
-        <v>499</v>
+        <v>553</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>GM</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "George M", "memory": "Talking Pinter"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "George M", "memory": "Talking Pinter angry hilarious","id":"GM"},</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3646,16 +3891,20 @@
         <v>290</v>
       </c>
       <c r="C25" t="s">
-        <v>510</v>
+        <v>492</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>MG</v>
       </c>
       <c r="E25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Maisie G", "memory": "Legendary curries on Lawrence Street"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Maisie G", "memory": "Legendary curries on Lawrence Street","id":"MG"},</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>291</v>
@@ -3663,9 +3912,13 @@
       <c r="C26" t="s">
         <v>175</v>
       </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>SK</v>
+      </c>
       <c r="E26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Satu K", "memory": "Finnish exchanges in Glasgow Botanics "},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Satu K", "memory": "Finnish exchanges in Glasgow Botanics ","id":"SK"},</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,24 +3931,32 @@
       <c r="C27" t="s">
         <v>176</v>
       </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>RR</v>
+      </c>
       <c r="E27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Robert R", "memory": "Imprismd "},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Robert R", "memory": "Imprismd ","id":"RR"},</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>293</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>446</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>AF</v>
       </c>
       <c r="E28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Apostolos F", "memory": "Tennis and early Varoufakis in London town"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":6,"name": "Apostolos F", "memory": "Tennis and early Varoufakis in London town","id":"AF"},</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3706,11 +3967,15 @@
         <v>294</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>577</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>JS</v>
       </c>
       <c r="E29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Joel S", "memory": "Rubber chicken escalator "},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Joel S", "memory": "Immortal rubber chicken escalator ","id":"JS"},</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3723,9 +3988,13 @@
       <c r="C30" t="s">
         <v>188</v>
       </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>AB</v>
+      </c>
       <c r="E30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Anthony B", "memory": "First game of cricket watched, probably bathrobed, Autumn 2005"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Anthony B", "memory": "First game of cricket watched, probably bathrobed, Autumn 2005","id":"AB"},</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3736,23 +4005,34 @@
         <v>296</v>
       </c>
       <c r="C31" t="s">
-        <v>532</v>
+        <v>512</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>SC</v>
       </c>
       <c r="E31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Simon C", "memory": "Enthusiastically creating fjordgames a table away"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Simon C", "memory": "Enthusiastically creating fjordgames a table away","id":"SC"},</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>447</v>
+      </c>
+      <c r="C32" t="s">
+        <v>544</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Md</v>
       </c>
       <c r="E32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Mimi de L", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":6,"name": "Mimi de L", "memory": "Tales of Mexico City","id":"Md"},</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3765,9 +4045,13 @@
       <c r="C33" t="s">
         <v>208</v>
       </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>GL</v>
+      </c>
       <c r="E33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Gorm L", "memory": "Indie pub night game theorising and a random encounter in Greenwich"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Gorm L", "memory": "Indie pub night game theorising and a random encounter in Greenwich","id":"GL"},</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -3778,11 +4062,15 @@
         <v>298</v>
       </c>
       <c r="C34" t="s">
-        <v>468</v>
+        <v>459</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>LZ</v>
       </c>
       <c r="E34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Liyi Z", "memory": "Sunny graduation show on Granary Square"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Liyi Z", "memory": "Sunny graduation show on Granary Square","id":"LZ"},</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3795,9 +4083,13 @@
       <c r="C35" t="s">
         <v>190</v>
       </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>AP</v>
+      </c>
       <c r="E35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Alina P", "memory": "Plum wine and feasting at Collier's Wood"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":7,"name": "Alina P", "memory": "Plum wine and feasting at Collier's Wood","id":"AP"},</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3807,9 +4099,16 @@
       <c r="B36" t="s">
         <v>300</v>
       </c>
+      <c r="C36" t="s">
+        <v>567</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>SL</v>
+      </c>
       <c r="E36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Scott L", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Scott L", "memory": "Progressing towards knowledge in Dudley's seminars","id":"SL"},</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3819,9 +4118,16 @@
       <c r="B37" t="s">
         <v>301</v>
       </c>
+      <c r="C37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>FC</v>
+      </c>
       <c r="E37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Foziclese C", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Foziclese C", "memory": "Sunny pints with the brother around 2010","id":"FC"},</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3832,11 +4138,15 @@
         <v>302</v>
       </c>
       <c r="C38" t="s">
-        <v>534</v>
+        <v>514</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>AZ</v>
       </c>
       <c r="E38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Alan Z", "memory": "Enjoying so very many degrees of freedom to crash a ship into asteroids"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Alan Z", "memory": "Enjoying so very many degrees of freedom to crash a ship into asteroids","id":"AZ"},</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3847,11 +4157,15 @@
         <v>303</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>434</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>GN</v>
       </c>
       <c r="E39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Geraldo N", "memory": "Cyberpunk 2020, xmas edition"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Geraldo N", "memory": "Cyberpunk 2020, xmas edition","id":"GN"},</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,11 +4176,15 @@
         <v>304</v>
       </c>
       <c r="C40" t="s">
-        <v>533</v>
+        <v>513</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>SW</v>
       </c>
       <c r="E40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Simon W", "memory": "Honorary Finn hosting the everglorious indie xmas party 2013"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Simon W", "memory": "Honorary Finn hosting the everglorious indie xmas party 2013","id":"SW"},</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3877,11 +4195,15 @@
         <v>305</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
+        <v>435</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>II</v>
       </c>
       <c r="E41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":4,"name": "Iona I", "memory": "On Sartre from art galleries in Cuenca to the hills of Sheffield"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":4,"name": "Iona I", "memory": "On Sartre from art galleries in Cuenca to the hills of Sheffield","id":"II"},</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3892,26 +4214,34 @@
         <v>306</v>
       </c>
       <c r="C42" t="s">
-        <v>535</v>
+        <v>568</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>DC</v>
       </c>
       <c r="E42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Diane C", "memory": "Belfast coffee morning by the hospital"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":7,"name": "Diane C", "memory": "Bright Belfast coffee morning by the hospital","id":"DC"},</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
         <v>307</v>
       </c>
       <c r="C43" t="s">
-        <v>467</v>
+        <v>569</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>HK</v>
       </c>
       <c r="E43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Henry K", "memory": "Exploring Hegel on Religion"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Henry K", "memory": "Quotes notched to each cell, rhinally unpackable &amp; routing to prynne, metres finger counted","id":"HK"},</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3922,11 +4252,15 @@
         <v>308</v>
       </c>
       <c r="C44" t="s">
-        <v>538</v>
+        <v>554</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>AE</v>
       </c>
       <c r="E44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Andrew E", "memory": "Exploring Pollok Park"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Andrew E", "memory": "Exploring Pollok Park with the most enviable Scottish accent","id":"AE"},</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3937,11 +4271,15 @@
         <v>309</v>
       </c>
       <c r="C45" t="s">
-        <v>536</v>
+        <v>515</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>RP</v>
       </c>
       <c r="E45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Rosie P", "memory": "Love at first IRC insult"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Rosie P", "memory": "Love at first IRC insult","id":"RP"},</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3952,11 +4290,15 @@
         <v>310</v>
       </c>
       <c r="C46" t="s">
-        <v>443</v>
+        <v>436</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>YK</v>
       </c>
       <c r="E46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":5,"name": "Yuji K", "memory": "Lucky voice guitar climax"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Yuji K", "memory": "Lucky voice guitar climax","id":"YK"},</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3966,9 +4308,16 @@
       <c r="B47" t="s">
         <v>311</v>
       </c>
+      <c r="C47" t="s">
+        <v>557</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>RC</v>
+      </c>
       <c r="E47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Ruth C", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Ruth C", "memory": "House pints near Queen Margaret Drive with bright foreheads","id":"RC"},</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3981,9 +4330,13 @@
       <c r="C48" t="s">
         <v>209</v>
       </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>SC</v>
+      </c>
       <c r="E48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Sarah C", "memory": "Being all the young nudes at the Flying Duck"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Sarah C", "memory": "Being all the young nudes at the Flying Duck","id":"SC"},</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -3994,31 +4347,39 @@
         <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>511</v>
+        <v>493</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>RG</v>
       </c>
       <c r="E49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Robbie G", "memory": "Navigare necesse est, especially on the Norfolk coast"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Robbie G", "memory": "Navigare necesse est, especially on the Norfolk coast","id":"RG"},</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
         <v>314</v>
       </c>
       <c r="C50" t="s">
-        <v>492</v>
+        <v>570</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>IA</v>
       </c>
       <c r="E50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Isak A", "memory": "Bookclub"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":5,"name": "Isak A", "memory": "Scifi aligned minds","id":"IA"},</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>315</v>
@@ -4026,24 +4387,32 @@
       <c r="C51" t="s">
         <v>52</v>
       </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>GC</v>
+      </c>
       <c r="E51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Gregor C", "memory": "Few but precious Das Capital reading group evenings"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Gregor C", "memory": "Few but precious Das Capital reading group evenings","id":"GC"},</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>316</v>
       </c>
       <c r="C52" t="s">
-        <v>466</v>
+        <v>458</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>AR</v>
       </c>
       <c r="E52" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Alice R", "memory": "Waltzing in a water wonderland"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":7,"name": "Alice R", "memory": "Waltzing in a water wonderland","id":"AR"},</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4054,11 +4423,15 @@
         <v>317</v>
       </c>
       <c r="C53" t="s">
-        <v>491</v>
+        <v>477</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>RT</v>
       </c>
       <c r="E53" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Rachel T", "memory": "South Kensington cafe catch-up"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":7,"name": "Rachel T", "memory": "South Kensington cafe catch-up","id":"RT"},</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4071,9 +4444,13 @@
       <c r="C54" t="s">
         <v>159</v>
       </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>RG</v>
+      </c>
       <c r="E54" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":4,"name": "Rebecca G", "memory": "Running to the Beat!"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":4,"name": "Rebecca G", "memory": "Running to the Beat!","id":"RG"},</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,9 +4460,16 @@
       <c r="B55" t="s">
         <v>319</v>
       </c>
+      <c r="C55" t="s">
+        <v>534</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>IS</v>
+      </c>
       <c r="E55" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Ina S", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":7,"name": "Ina S", "memory": "The cultural evenings of Normand Gardens","id":"IS"},</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -4096,11 +4480,15 @@
         <v>320</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>501</v>
+        <v>483</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>PJ</v>
       </c>
       <c r="E56" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Paavo J", "memory": "(Very) chance cross-continental Florianopolis encounter leading to a poker night by the sea"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Paavo J", "memory": "(Very) chance cross-continental Florianopolis encounter leading to a poker night by the sea","id":"PJ"},</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,11 +4499,15 @@
         <v>321</v>
       </c>
       <c r="C57" t="s">
-        <v>455</v>
+        <v>448</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>SB</v>
       </c>
       <c r="E57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Sandy B", "memory": "And the fluid boundaries of squash ability"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Sandy B", "memory": "And the fluid boundaries of squash ability","id":"SB"},</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4128,9 +4520,13 @@
       <c r="C58" t="s">
         <v>160</v>
       </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>GS</v>
+      </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Giorgios S", "memory": "Psychedelic playlists and jamming on Ruthven lane"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Giorgios S", "memory": "Psychedelic playlists and jamming on Ruthven lane","id":"GS"},</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4141,23 +4537,34 @@
         <v>323</v>
       </c>
       <c r="C59" t="s">
-        <v>482</v>
+        <v>469</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>HB</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":2,"name": "Henry B", "memory": "Doublet think"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":2,"name": "Henry B", "memory": "Doublet think","id":"HB"},</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
         <v>324</v>
       </c>
+      <c r="C60" t="s">
+        <v>558</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>RN</v>
+      </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Razan N", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":6,"name": "Razan N", "memory": "Jordanian sensemaker","id":"RN"},</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4168,11 +4575,15 @@
         <v>325</v>
       </c>
       <c r="C61" t="s">
-        <v>539</v>
+        <v>517</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>SS</v>
       </c>
       <c r="E61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Sara S", "memory": "Had lunch at the QMU cantina, definitely"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Sara S", "memory": "Had lunch at the QMU cantina, definitely","id":"SS"},</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4183,11 +4594,15 @@
         <v>326</v>
       </c>
       <c r="C62" t="s">
-        <v>490</v>
+        <v>529</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>TA</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Thhoomaas A", "memory": "Newcastle Grand Parade"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":1,"name": "Thhoomaas A", "memory": "Newcastle Grand Parader","id":"TA"},</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4198,11 +4613,15 @@
         <v>327</v>
       </c>
       <c r="C63" t="s">
-        <v>540</v>
+        <v>518</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>MK</v>
       </c>
       <c r="E63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Mira K", "memory": "Hitchcock night"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":3,"name": "Mira K", "memory": "Hitchcock night","id":"MK"},</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4215,108 +4634,146 @@
       <c r="C64" t="s">
         <v>67</v>
       </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>CC</v>
+      </c>
       <c r="E64" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":7,"name": "Claira C", "memory": "Percy French pints"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":7,"name": "Claira C", "memory": "Percy French pints","id":"CC"},</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>329</v>
       </c>
       <c r="C65" t="s">
-        <v>512</v>
+        <v>494</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>AC</v>
       </c>
       <c r="E65" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":1,"name": "Adriano C", "memory": "Little brother superman feeding me Feed Me"},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":4,"name": "Adriano C", "memory": "Little brother superman feeding me Feed Me","id":"AC"},</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>330</v>
+      </c>
+      <c r="C66" t="s">
+        <v>551</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>KF</v>
       </c>
       <c r="E66" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>{"cluster":3,"name": "Jasmine M", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":6,"name": "Katy F", "memory": "Reassuring mellowness in class","id":"KF"},</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="C67" t="s">
+        <v>519</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D129" si="2">LEFT(B67,1)&amp;MID(B67,FIND(" ",B67)+1,1)</f>
+        <v>JH</v>
       </c>
       <c r="E67" s="2" t="str">
-        <f t="shared" ref="E67:E128" si="1">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A67&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B67&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C67&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":3,"name": "Katy F", "memory": ""},</v>
+        <f t="shared" si="1"/>
+        <v>{"cluster":4,"name": "Jessica H", "memory": "Warm, warm welcome to London life from Camden all the way down to the Frontline Reporters club","id":"JH"},</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C68" t="s">
-        <v>444</v>
+        <v>73</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="2"/>
+        <v>DM</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":4,"name": "Jessica H", "memory": "Warm welcome to London life all the way down to the Frontline Reporters club"},</v>
+        <f t="shared" ref="E68:E130" si="3">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A68&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B68&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C68&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D68&amp;$G$1&amp;"},"</f>
+        <v>{"cluster":1,"name": "Deborah M", "memory": "Offshore coffees and photo walks","id":"DM"},</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>476</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="2"/>
+        <v>AG</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Deborah M", "memory": "Offshore coffees and photo walks"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Alex G", "memory": "Hub afternoons probing a new and improved theory of capitalism ","id":"AG"},</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C70" t="s">
-        <v>489</v>
+        <v>475</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="2"/>
+        <v>GY</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":3,"name": "Alex G", "memory": "Hub afternoons probing a new and improved theory of capitalism "},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Gareth Y", "memory": "Fine beer and dialetheism","id":"GY"},</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C71" t="s">
-        <v>488</v>
+        <v>539</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="2"/>
+        <v>SR</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Gareth Y", "memory": "Fine beer and dialetheism"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Sneha R", "memory": "FB camraderie London doldrums","id":"SR"},</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4324,401 +4781,531 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="C72" t="s">
+        <v>439</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="2"/>
+        <v>CL</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":3,"name": "Sneha R", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Ciaran L", "memory": "Shouldering an infinite one night stand","id":"CL"},</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C73" t="s">
-        <v>446</v>
+        <v>194</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="2"/>
+        <v>AK</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Ciaran L", "memory": "Shouldering an infinite one night stand"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Adam K", "memory": "Drums hit at Nice and Sleazy","id":"AK"},</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>469</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="2"/>
+        <v>SW</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Adam K", "memory": "Drums hit at Nice and Sleazy"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Sam W", "memory": "Doublet think","id":"SW"},</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>482</v>
+        <v>550</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="2"/>
+        <v>SN</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Sam W", "memory": "Doublet think"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":7,"name": "Sophia NB", "memory": "Scandi xmas architecture","id":"SN"},</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>339</v>
+      </c>
+      <c r="C76" t="s">
+        <v>547</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="2"/>
+        <v>JR</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Sophia NB", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Julia R", "memory": "Celtic connections. Probably the first person I spoke to on the master's course","id":"JR"},</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C77" t="s">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="2"/>
+        <v>RP</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Julia R", "memory": "Celtic connections"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Roxana P", "memory": "South bank graffiti analysis","id":"RP"},</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C78" t="s">
-        <v>476</v>
+        <v>474</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="2"/>
+        <v>JC</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Roxana P", "memory": "South bank graffiti analysis"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Joanne C", "memory": "Wedding photos and pastel bridesmaids","id":"JC"},</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C79" t="s">
-        <v>487</v>
+        <v>461</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="2"/>
+        <v>SJ</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Joanne C", "memory": "Wedding photos and pastel bridesmaids"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Simon J", "memory": "Illuminati dominance by Gladstone Park","id":"SJ"},</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C80" t="s">
-        <v>470</v>
+        <v>93</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="2"/>
+        <v>MF</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Simon J", "memory": "Illuminati dominance by Gladstone Park"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Martha F", "memory": "The launch of HMS Defender on the Clyde","id":"MF"},</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>441</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="2"/>
+        <v>LW</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Martha F", "memory": "The launch of HMS Defender on the Clyde"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Laura W", "memory": "Eng Lit dept lobby rounds round about Finnegans Wake","id":"LW"},</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B82" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C82" t="s">
-        <v>448</v>
+        <v>174</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="2"/>
+        <v>RM</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Laura W", "memory": "Eng Lit dept lobby rounds round about Finnegans Wake"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Rachel M", "memory": "Rocky movie night in Hyndland","id":"RM"},</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>495</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="2"/>
+        <v>MF</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Rachel M", "memory": "Rocky movie night in Hyndland"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":5,"name": "Melissa F", "memory": "Total War Warhammer character art chat at Trondheim airport","id":"MF"},</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C84" t="s">
-        <v>513</v>
+        <v>576</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="2"/>
+        <v>RM</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Melissa F", "memory": "Total War Warhammer character art chat at Trondheim airport"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Rachel M", "memory": "Evenings of words and guitars and the flatmate towering above Byres Road","id":"RM"},</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>460</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Rachel M", "memory": "Evenings of words and guitars and the flatmate"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Ol'ga K", "memory": "Men discovered to be like sand","id":"OK"},</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C86" t="s">
-        <v>469</v>
+        <v>532</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="2"/>
+        <v>RF</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Ol'ga K", "memory": "Men discovered to be like sand"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Rhiannon F", "memory": "Buddhism was involved","id":"RF"},</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B87" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="C87" t="s">
+        <v>561</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="2"/>
+        <v>ST</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Rhiannon F", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Stuart T", "memory": "Facebook meme machine","id":"ST"},</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>350</v>
+      </c>
+      <c r="C88" t="s">
+        <v>442</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="2"/>
+        <v>ND</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Stuart T", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Nermin D", "memory": "Citysalsa surprise","id":"ND"},</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C89" t="s">
-        <v>449</v>
+        <v>496</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="2"/>
+        <v>GK</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Nermin D", "memory": "Citysalsa surprise"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":5,"name": "Guy K", "memory": "Indie pub nights at the Crown","id":"GK"},</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C90" t="s">
-        <v>514</v>
+        <v>195</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="2"/>
+        <v>LR</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Guy K", "memory": "Indie pub nights at the Crown"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Lil R", "memory": "Red Crossings","id":"LR"},</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>467</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="2"/>
+        <v>JM</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Lil R", "memory": "Red Crossings"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Jenny M", "memory": "Communism will win","id":"JM"},</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C92" t="s">
-        <v>478</v>
+        <v>449</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="2"/>
+        <v>PG</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Jenny M", "memory": "Communism will win"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Paul G", "memory": "Science Made Us Robots at New Cross Inn","id":"PG"},</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>163</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="2"/>
+        <v>MW</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Paul G", "memory": "Science Made Us Robots at New Cross Inn"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Megan W", "memory": "Bill Nighy, casually","id":"MW"},</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C94" t="s">
-        <v>163</v>
+        <v>533</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="2"/>
+        <v>LG</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Megan W", "memory": "Bill Nighy, casually"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Lindsay G", "memory": "Gleefully pithy dispatches from Asia","id":"LG"},</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>356</v>
+        <v>357</v>
+      </c>
+      <c r="C95" t="s">
+        <v>482</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="2"/>
+        <v>KM</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Lindsay G", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Kate M", "memory": "A party on Royal Terrace with a keyboard and a ballerina, probably talking about Paris","id":"KM"},</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C96" t="s">
-        <v>500</v>
+        <v>442</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="2"/>
+        <v>PV</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Kate M", "memory": "A party on Royal Terrace with a keyboard and a ballerina, probably talking about Paris"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Paola V", "memory": "Citysalsa surprise","id":"PV"},</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C97" t="s">
-        <v>449</v>
+        <v>183</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="2"/>
+        <v>DC</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Paola V", "memory": "Citysalsa surprise"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Donald C", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room","id":"DC"},</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>562</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="2"/>
+        <v>YH</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Donald C", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Yosef H", "memory": "Planes above, paintings beyond","id":"YH"},</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="C99" t="s">
+        <v>520</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="2"/>
+        <v>GC</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Yosef H", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "George C", "memory": "Collegial nights in the QMU lobby","id":"GC"},</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4726,176 +5313,246 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C100" t="s">
-        <v>164</v>
+        <v>531</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="2"/>
+        <v>IS</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "George C", "memory": "QMU "},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":1,"name": "Isabel S", "memory": "Hauling planks to that allotment by train","id":"IS"},</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C101" t="s">
-        <v>477</v>
+        <v>484</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Isabel S", "memory": "Hauling planks to the allotment by train"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":5,"name": "Matt D", "memory": "That strategy game you were showing in very early days at Google Campus","id":"MD"},</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C102" t="s">
-        <v>502</v>
+        <v>559</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="2"/>
+        <v>IB</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":5,"name": "Matt D", "memory": "That strategy game you were showing in very early days at Google Campus"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Ioanna B", "memory": "That happy Greek unit 2009-10","id":"IB"},</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="C103" t="s">
+        <v>555</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="2"/>
+        <v>AB</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Ioanna B", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Andrew B", "memory": "An introduction to the world of maps from the Moorgate Murray Hewitt","id":"AB"},</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>365</v>
+        <v>366</v>
+      </c>
+      <c r="C104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="2"/>
+        <v>SH</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Andrew B", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":7,"name": "Steve H", "memory": "Summertime barbecue and Rocket League","id":"SH"},</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>497</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="2"/>
+        <v>EG</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Steve H", "memory": "Summertime barbecue and Rocket League"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":5,"name": "Erlend G", "memory": "Metatron's cub in Yerba Buena embrace","id":"EG"},</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C106" t="s">
-        <v>515</v>
+        <v>465</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="2"/>
+        <v>CG</v>
       </c>
       <c r="E106" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Erlend G", "memory": "Metatron's cub in Yerba Buena embrace"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":5,"name": "Catalin G", "memory": "Normand travel tales","id":"CG"},</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C107" t="s">
-        <v>475</v>
+        <v>521</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="2"/>
+        <v>CB</v>
       </c>
       <c r="E107" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":6,"name": "Catalin G", "memory": "Normand travel tales"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Celia B", "memory": "Breaking bread at Empress place ","id":"CB"},</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="C108" t="s">
+        <v>498</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="2"/>
+        <v>GD</v>
       </c>
       <c r="E108" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Celia B", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Gerard D", "memory": "Atlas pints with the friendliest beard","id":"GD"},</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C109" t="s">
-        <v>516</v>
+        <v>538</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="2"/>
+        <v>DM</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Gerard D", "memory": "Atlas pints with the friendliest beard"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":5,"name": "Daniel M", "memory": "The Moonzooka song","id":"DM"},</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="C110" t="s">
+        <v>541</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="2"/>
+        <v>KA</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Daniel M", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Kareem A", "memory": "Xmas party and gin night at the Red Cross headquarters","id":"KA"},</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="C111" t="s">
+        <v>542</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="2"/>
+        <v>JM</v>
       </c>
       <c r="E111" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":4,"name": "Kareem A", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Joanne M", "memory": "Oman Court antipodean parties","id":"JM"},</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>373</v>
+        <v>374</v>
+      </c>
+      <c r="C112" t="s">
+        <v>473</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="2"/>
+        <v>CE</v>
       </c>
       <c r="E112" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Joanne M", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Chris E", "memory": "Loving Om","id":"CE"},</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4903,116 +5560,151 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C113" t="s">
-        <v>486</v>
+        <v>470</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="2"/>
+        <v>AS</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":4,"name": "Chris E", "memory": "Loving Om"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Aniko S", "memory": "Translation talk at the CCA","id":"AS"},</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C114" t="s">
-        <v>483</v>
+        <v>499</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="2"/>
+        <v>HA</v>
       </c>
       <c r="E114" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":4,"name": "Aniko S", "memory": "Translation talk at the CCA"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Hani A", "memory": "New London Orchestration","id":"HA"},</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C115" t="s">
-        <v>517</v>
+        <v>501</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="2"/>
+        <v>EM</v>
       </c>
       <c r="E115" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Hani A", "memory": "New London Orchestration"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Euan M", "memory": "The history boys","id":"EM"},</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B116" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s">
-        <v>519</v>
+        <v>500</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="2"/>
+        <v>AG</v>
       </c>
       <c r="E116" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Euan M", "memory": "The history boys"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Alejandro G", "memory": "Frantically filling in engineering job tests at Park View Road","id":"AG"},</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C117" t="s">
-        <v>518</v>
+        <v>522</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="2"/>
+        <v>SC</v>
       </c>
       <c r="E117" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Alejandro G", "memory": "Frantically filling in engineering job tests at Park View Road"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Sebastian C", "memory": "Our walks to the big Tesco, your songs south of the river","id":"SC"},</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="C118" t="s">
+        <v>571</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="2"/>
+        <v>MS</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Sebastian C", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Melenia S", "memory": "Warming that London house ","id":"MS"},</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C119" t="s">
-        <v>181</v>
+        <v>472</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="2"/>
+        <v>RK</v>
       </c>
       <c r="E119" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Melenia S", "memory": "Housewarming party "},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Radek K", "memory": "Smokes on the street with a trenchcoat","id":"RK"},</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B120" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C120" t="s">
-        <v>485</v>
+        <v>575</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="2"/>
+        <v>GK</v>
       </c>
       <c r="E120" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Radek K", "memory": "Smokes on the street with a trenchcoat"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Gunes K", "memory": "A new year's quantum tube ride and drinks in Barri Gotic","id":"GK"},</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5020,182 +5712,246 @@
         <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>523</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="2"/>
+        <v>NS</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":4,"name": "Gunes K", "memory": "A new year's quantum tube ride and drinks in Gotica"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Niki S", "memory": "An afternoon from Assange to Zizek","id":"NS"},</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C122" t="s">
-        <v>166</v>
+        <v>201</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="2"/>
+        <v>HH</v>
       </c>
       <c r="E122" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Niki S", "memory": "Views from Assange to Zizek"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Henrietta H", "memory": "Nordic Society nights","id":"HH"},</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C123" t="s">
-        <v>201</v>
+        <v>524</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="2"/>
+        <v>SD</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Henrietta H", "memory": "Nordic Society nights"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Serena D", "memory": "A Glasgow party with two Italian friends","id":"SD"},</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C124" t="s">
+        <v>471</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="2"/>
+        <v>CL</v>
       </c>
       <c r="E124" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Serena D", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Csenge L", "memory": "Glasgow Street dissection of a King's Speech ","id":"CL"},</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C125" t="s">
-        <v>484</v>
+        <v>462</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="2"/>
+        <v>FC</v>
       </c>
       <c r="E125" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Csenge L", "memory": "Glasgow Street dissection of a King's Speech "},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Freya C", "memory": "The well-tread Soviet corners of the library tower, vinyls in the woodlands ","id":"FC"},</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="C126" t="s">
+        <v>556</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="2"/>
+        <v>SL</v>
       </c>
       <c r="E126" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Johannes S", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":4,"name": "Stefania L", "memory": "Remote initiations into witchcraft","id":"SL"},</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C127" t="s">
-        <v>471</v>
+        <v>563</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="2"/>
+        <v>JB</v>
       </c>
       <c r="E127" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Freya C", "memory": "The well-tread Soviet corners of the library tower, vinyls in the woodlands "},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Jennifer B", "memory": "Powerpuff sister","id":"JB"},</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C128" t="s">
-        <v>472</v>
+        <v>502</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="2"/>
+        <v>MD</v>
       </c>
       <c r="E128" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>{"cluster":1,"name": "Stefania L", "memory": "Initiations into witchcraft"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":6,"name": "Marie D", "memory": "Roots in bohemian prog rockiness","id":"MD"},</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="C129" t="s">
+        <v>530</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="2"/>
+        <v>AM</v>
       </c>
       <c r="E129" s="2" t="str">
-        <f t="shared" ref="E129:E179" si="2">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A129&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B129&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C129&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":1,"name": "Jennifer B", "memory": ""},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":3,"name": "Ally M", "memory": "Best ever asymmetrical haircut for moving house using a pram","id":"AM"},</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C130" t="s">
-        <v>520</v>
+        <v>144</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" ref="D130:D172" si="4">LEFT(B130,1)&amp;MID(B130,FIND(" ",B130)+1,1)</f>
+        <v>PT</v>
       </c>
       <c r="E130" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Marie D", "memory": "Roots in bohemian prog rockiness"},</v>
+        <f t="shared" si="3"/>
+        <v>{"cluster":2,"name": "Peter T", "memory": "Tchai Ovna chess afternoon","id":"PT"},</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="C131" t="s">
+        <v>507</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="4"/>
+        <v>NE</v>
       </c>
       <c r="E131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Sian A", "memory": ""},</v>
+        <f t="shared" ref="E131:E172" si="5">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A131&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B131&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C131&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D131&amp;$G$1&amp;"},"</f>
+        <v>{"cluster":3,"name": "Nina E", "memory": "Talking translation at West Princes Street","id":"NE"},</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>527</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="4"/>
+        <v>RD</v>
       </c>
       <c r="E132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Ally M", "memory": "Best asymmetrical haircut to ever move house with"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Rebecca D", "memory": "Moorgate coffee and walk, Borgesian dreams","id":"RD"},</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C133" t="s">
-        <v>144</v>
+        <v>457</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="4"/>
+        <v>DF</v>
       </c>
       <c r="E133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Peter T", "memory": "Tchai Ovna chess afternoon"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "David F", "memory": "The considerate stories on your blog","id":"DF"},</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,11 +5959,18 @@
         <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
+        <v>168</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="4"/>
+        <v>BM</v>
       </c>
       <c r="E134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Nadia B", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Bahareh M", "memory": "Teatimes at Tchai Ovna","id":"BM"},</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -5215,101 +5978,132 @@
         <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C135" t="s">
-        <v>525</v>
+        <v>169</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="4"/>
+        <v>NA</v>
       </c>
       <c r="E135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Nina E", "memory": "Talking translation at West Princes Street"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Nicholas A", "memory": "Science and scifi at the housewarming near Charing Cross","id":"NA"},</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C136" t="s">
-        <v>199</v>
+        <v>572</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="4"/>
+        <v>BL</v>
       </c>
       <c r="E136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Rebecca D", "memory": "Walking near Red Cross"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":6,"name": "Brenda L", "memory": "An introductin to the Cork lilt between classes","id":"BL"},</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C137" t="s">
-        <v>464</v>
+        <v>565</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="4"/>
+        <v>EG</v>
       </c>
       <c r="E137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "David F", "memory": "The considerate stories on your blog"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":6,"name": "Emilie G", "memory": "Classic fringe","id":"EG"},</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="C138" t="s">
+        <v>564</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="4"/>
+        <v>KK</v>
       </c>
       <c r="E138" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Pawel L", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":6,"name": "Katharina K", "memory": "Freundliche Augen","id":"KK"},</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C139" t="s">
-        <v>168</v>
+        <v>573</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="4"/>
+        <v>LB</v>
       </c>
       <c r="E139" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Bahareh M", "memory": "Teatimes at Tchai Ovna"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":6,"name": "Louise B", "memory": "And the Kaskeala connection","id":"LB"},</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C140" t="s">
-        <v>169</v>
+        <v>546</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="4"/>
+        <v>CA</v>
       </c>
       <c r="E140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Nicholas A", "memory": "Science and scifi at the housewarming near Charing Cross"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":6,"name": "Cari A", "memory": "Through-going Irish-American friendliness","id":"CA"},</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C141" t="s">
-        <v>526</v>
+        <v>229</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="4"/>
+        <v>JN</v>
       </c>
       <c r="E141" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Brenda L", "memory": "Cork lilt"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "James N", "memory": "Newman's America","id":"JN"},</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -5317,11 +6111,18 @@
         <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="C142" t="s">
+        <v>464</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="4"/>
+        <v>JB</v>
       </c>
       <c r="E142" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Emilie G", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Jess B", "memory": "Kersland street sonic booms","id":"JB"},</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -5329,35 +6130,56 @@
         <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="C143" t="s">
+        <v>463</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="4"/>
+        <v>NR</v>
       </c>
       <c r="E143" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Katharina K", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Nic R", "memory": "Kersland street movie making","id":"NR"},</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="C144" t="s">
+        <v>221</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="4"/>
+        <v>AT</v>
       </c>
       <c r="E144" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Louise B", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":4,"name": "Andromeda T", "memory": "Poetry read in the teahouse dark and warm","id":"AT"},</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>407</v>
+      </c>
+      <c r="C145" t="s">
+        <v>545</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="4"/>
+        <v>RG</v>
       </c>
       <c r="E145" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Cari A", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Richard G", "memory": "Showstealing the Robbers","id":"RG"},</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,101 +6187,132 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C146" t="s">
-        <v>229</v>
+        <v>183</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="4"/>
+        <v>NM</v>
       </c>
       <c r="E146" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "James N", "memory": "Newman's America"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Neil M", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room","id":"NM"},</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C147" t="s">
-        <v>474</v>
+        <v>227</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="4"/>
+        <v>DA</v>
       </c>
       <c r="E147" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Jess B", "memory": "Kersland street sonic booms"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "David A", "memory": "Philosophy classes","id":"DA"},</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C148" t="s">
-        <v>473</v>
+        <v>574</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="4"/>
+        <v>LB</v>
       </c>
       <c r="E148" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Nic R", "memory": "Kersland street movie making"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Ljubo B", "memory": "Gifts of Kierkegaard in Summer","id":"LB"},</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C149" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="4"/>
+        <v>FG</v>
       </c>
       <c r="E149" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":4,"name": "Andromeda T", "memory": "Poetry read in the teahouse dark and warm"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Frazer G", "memory": "Newman's America","id":"FG"},</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="C150" t="s">
+        <v>508</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="4"/>
+        <v>AK</v>
       </c>
       <c r="E150" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Richard G", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":6,"name": "Azra K", "memory": "Crieff Hydro nights","id":"AK"},</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C151" t="s">
-        <v>183</v>
+        <v>506</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="4"/>
+        <v>DG</v>
       </c>
       <c r="E151" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Neil M", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Dana G", "memory": "Movie making moments","id":"DG"},</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B152" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C152" t="s">
-        <v>527</v>
+        <v>525</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="4"/>
+        <v>JM</v>
       </c>
       <c r="E152" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Petya T", "memory": "Bulgarian"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "John M", "memory": "Easy Argyle street mornings with the respective ladies","id":"JM"},</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -5467,14 +6320,18 @@
         <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C153" t="s">
-        <v>227</v>
+        <v>455</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="4"/>
+        <v>MH</v>
       </c>
       <c r="E153" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "David A", "memory": "Philosophy classes"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":1,"name": "Maciej H", "memory": "Magically early morning hellos on Byres' Road","id":"MH"},</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -5482,14 +6339,18 @@
         <v>2</v>
       </c>
       <c r="B154" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C154" t="s">
-        <v>228</v>
+        <v>229</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="4"/>
+        <v>AS</v>
       </c>
       <c r="E154" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Ljubo B", "memory": "Kierkegaard in summer"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Annabel S", "memory": "Newman's America","id":"AS"},</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,29 +6358,37 @@
         <v>2</v>
       </c>
       <c r="B155" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C155" t="s">
-        <v>229</v>
+        <v>456</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="4"/>
+        <v>RJ</v>
       </c>
       <c r="E155" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Frazer G", "memory": "Newman's America"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Rob J", "memory": "GoldenEye at the Joneses","id":"RJ"},</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C156" t="s">
-        <v>528</v>
+        <v>454</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="4"/>
+        <v>RR</v>
       </c>
       <c r="E156" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Azra K", "memory": "Crieff Hydro nights"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Roosa R", "memory": "Eurotrash party popping","id":"RR"},</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -5527,128 +6396,170 @@
         <v>2</v>
       </c>
       <c r="B157" t="s">
-        <v>418</v>
+        <v>419</v>
+      </c>
+      <c r="C157" t="s">
+        <v>229</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="4"/>
+        <v>RJ</v>
       </c>
       <c r="E157" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Stefania R", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Robert J", "memory": "Newman's America","id":"RJ"},</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B158" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C158" t="s">
-        <v>524</v>
+        <v>453</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="4"/>
+        <v>KH</v>
       </c>
       <c r="E158" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Dana G", "memory": "Movie making moments"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Kieran H", "memory": "Revue around Colebrooke","id":"KH"},</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B159" t="s">
-        <v>420</v>
+        <v>480</v>
+      </c>
+      <c r="C159" t="s">
+        <v>481</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="4"/>
+        <v>AF</v>
       </c>
       <c r="E159" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "John M", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Adam Fa", "memory": "Newcastle house party. Talking late and sleeping on the floor","id":"AF"},</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B160" t="s">
         <v>421</v>
       </c>
       <c r="C160" t="s">
-        <v>462</v>
+        <v>536</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="4"/>
+        <v>GS</v>
       </c>
       <c r="E160" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Maciej H", "memory": "Magically early morning hellos on Byres' Road"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "George S", "memory": "Boyd Orr banter","id":"GS"},</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
         <v>422</v>
       </c>
       <c r="C161" t="s">
-        <v>229</v>
+        <v>543</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="4"/>
+        <v>PF</v>
       </c>
       <c r="E161" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Annabel S", "memory": "Newman's America"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Pascale F", "memory": "Tea house poetry nights ","id":"PF"},</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B162" t="s">
         <v>423</v>
       </c>
       <c r="C162" t="s">
-        <v>463</v>
+        <v>245</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="4"/>
+        <v>HR</v>
       </c>
       <c r="E162" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Rob J", "memory": "GoldenEye at the Joneses"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Helen R", "memory": "Candy store smiles off Byres' road","id":"HR"},</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
         <v>424</v>
       </c>
       <c r="C163" t="s">
-        <v>461</v>
+        <v>560</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="4"/>
+        <v>KT</v>
       </c>
       <c r="E163" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Roosa R", "memory": "Eurotrash party popping"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":3,"name": "Kyle T", "memory": "In comp lit lit","id":"KT"},</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" t="s">
         <v>425</v>
       </c>
       <c r="C164" t="s">
-        <v>229</v>
+        <v>452</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="4"/>
+        <v>MC</v>
       </c>
       <c r="E164" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Robert J", "memory": "Newman's America"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":1,"name": "Maitiu C", "memory": "Pre-historical catch-ups near WILT","id":"MC"},</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" t="s">
         <v>426</v>
       </c>
       <c r="C165" t="s">
-        <v>460</v>
+        <v>251</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="4"/>
+        <v>EY</v>
       </c>
       <c r="E165" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Kieran H", "memory": "Revue around Colebrooke"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Eileen Y", "memory": "Your mother opting to use her voice over the buzzer as the most effective way to get into the, from the street to our second floor flat ","id":"EY"},</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -5656,14 +6567,18 @@
         <v>2</v>
       </c>
       <c r="B166" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="C166" t="s">
-        <v>497</v>
+        <v>503</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="4"/>
+        <v>JF</v>
       </c>
       <c r="E166" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Adam Fa", "memory": "Newcastle house party. Talking late and sleeping on the floor"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "James F", "memory": "And one of the wildest backstories for a book. Poetry nights at the QMU?","id":"JF"},</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -5671,215 +6586,117 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="C167" t="s">
+        <v>526</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="4"/>
+        <v>JI</v>
       </c>
       <c r="E167" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "George S", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Jarkko I", "memory": "House parties of the Finnish sect","id":"JI"},</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="C168" t="s">
+        <v>450</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="4"/>
+        <v>JW</v>
       </c>
       <c r="E168" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Pascale F", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":1,"name": "Joe W", "memory": "Protesting for tutor and teacher rights down by Dumbarton Road","id":"JW"},</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C169" t="s">
-        <v>245</v>
+        <v>451</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="4"/>
+        <v>AB</v>
       </c>
       <c r="E169" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Helen R", "memory": "Candy store smiles off Byres' road"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":1,"name": "Amy B", "memory": "Fencing off 2005","id":"AB"},</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>430</v>
+        <v>505</v>
+      </c>
+      <c r="C170" t="s">
+        <v>259</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="4"/>
+        <v>JW</v>
       </c>
       <c r="E170" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Tessa F", "memory": ""},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":1,"name": "Jessica W", "memory": "Exploring Edinburgh of all places in about 2006","id":"JW"},</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B171" t="s">
         <v>431</v>
       </c>
       <c r="C171" t="s">
-        <v>479</v>
+        <v>260</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="4"/>
+        <v>FA</v>
       </c>
       <c r="E171" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":3,"name": "Kyle T", "memory": "Lit in comp lit"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":1,"name": "Francesca A", "memory": "Refugeed on your London floor with the drumkit in 2008 ","id":"FA"},</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B172" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="C172" t="s">
-        <v>459</v>
+        <v>504</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="4"/>
+        <v>SM</v>
       </c>
       <c r="E172" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Maitiu C", "memory": "Pre-historical catch-ups near WILT"},</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>2</v>
-      </c>
-      <c r="B173" t="s">
-        <v>377</v>
-      </c>
-      <c r="E173" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Euan M", "memory": ""},</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>2</v>
-      </c>
-      <c r="B174" t="s">
-        <v>433</v>
-      </c>
-      <c r="C174" t="s">
-        <v>251</v>
-      </c>
-      <c r="E174" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Eileen Y", "memory": "Your mother opting to use her voice over the buzzer as the most effective way to get into the, from the street to our second floor flat "},</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>2</v>
-      </c>
-      <c r="B175" t="s">
-        <v>434</v>
-      </c>
-      <c r="C175" t="s">
-        <v>521</v>
-      </c>
-      <c r="E175" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "James F", "memory": "And one of the wildest backstories for a book. Poetry nights at the QMU?"},</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>2</v>
-      </c>
-      <c r="B176" t="s">
-        <v>435</v>
-      </c>
-      <c r="C176" t="s">
-        <v>495</v>
-      </c>
-      <c r="E176" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":2,"name": "Jarkko I", "memory": "Housewarmings of the Finnish sect"},</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>1</v>
-      </c>
-      <c r="B177" t="s">
-        <v>436</v>
-      </c>
-      <c r="C177" t="s">
-        <v>457</v>
-      </c>
-      <c r="E177" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Joe W", "memory": "Protesting for tutor and teacher rights down by Dumbarton Road"},</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>1</v>
-      </c>
-      <c r="B178" t="s">
-        <v>437</v>
-      </c>
-      <c r="C178" t="s">
-        <v>458</v>
-      </c>
-      <c r="E178" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Amy B", "memory": "Fencing off 2005"},</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>1</v>
-      </c>
-      <c r="B179" t="s">
-        <v>523</v>
-      </c>
-      <c r="C179" t="s">
-        <v>259</v>
-      </c>
-      <c r="E179" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>{"cluster":1,"name": "Jessica W", "memory": "Exploring Edinburgh of all places in about 2006"},</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180" t="s">
-        <v>438</v>
-      </c>
-      <c r="C180" t="s">
-        <v>260</v>
-      </c>
-      <c r="E180" s="2" t="str">
-        <f t="shared" ref="E180:E181" si="3">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A180&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B180&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C180&amp;$G$1&amp;"},"</f>
-        <v>{"cluster":1,"name": "Francesca A", "memory": "Refugeed on your London floor with the drumkit in 2008 "},</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>2</v>
-      </c>
-      <c r="B181" t="s">
-        <v>494</v>
-      </c>
-      <c r="C181" t="s">
-        <v>522</v>
-      </c>
-      <c r="E181" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{"cluster":2,"name": "Stuart M", "memory": "From QMU camraderie to a photo deluge from Japan, cycling in the countryside"},</v>
+        <f t="shared" si="5"/>
+        <v>{"cluster":2,"name": "Stuart M", "memory": "From QMU camraderie to a photo deluge from Japan, cycling in the countryside","id":"SM"},</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E172"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/projects/memblobs/memories.xlsx
+++ b/projects/memblobs/memories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="580">
   <si>
     <t>Person</t>
   </si>
@@ -1758,6 +1758,12 @@
   </si>
   <si>
     <t xml:space="preserve">Immortal rubber chicken escalator </t>
+  </si>
+  <si>
+    <t>William C</t>
+  </si>
+  <si>
+    <t>Chez adventures in the nude drawing class</t>
   </si>
 </sst>
 </file>
@@ -3339,10 +3345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P172"/>
+  <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,8 +3502,8 @@
         <v>485</v>
       </c>
       <c r="P7">
-        <f>COUNTIF(A:A,N7)</f>
-        <v>19</v>
+        <f t="shared" ref="P7:P13" si="2">COUNTIF(A:A,N7)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -3525,7 +3531,7 @@
         <v>486</v>
       </c>
       <c r="P8">
-        <f>COUNTIF(A:A,N8)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
     </row>
@@ -3554,7 +3560,7 @@
         <v>487</v>
       </c>
       <c r="P9">
-        <f>COUNTIF(A:A,N9)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
@@ -3583,7 +3589,7 @@
         <v>488</v>
       </c>
       <c r="P10">
-        <f>COUNTIF(A:A,N10)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -3612,7 +3618,7 @@
         <v>489</v>
       </c>
       <c r="P11">
-        <f>COUNTIF(A:A,N11)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
@@ -3641,7 +3647,7 @@
         <v>490</v>
       </c>
       <c r="P12">
-        <f>COUNTIF(A:A,N12)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
@@ -3670,7 +3676,7 @@
         <v>491</v>
       </c>
       <c r="P13">
-        <f>COUNTIF(A:A,N13)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
@@ -4472,7 +4478,7 @@
         <v>{"cluster":7,"name": "Ina S", "memory": "The cultural evenings of Normand Gardens","id":"IS"},</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4692,7 +4698,7 @@
         <v>519</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D129" si="2">LEFT(B67,1)&amp;MID(B67,FIND(" ",B67)+1,1)</f>
+        <f t="shared" ref="D67:D129" si="3">LEFT(B67,1)&amp;MID(B67,FIND(" ",B67)+1,1)</f>
         <v>JH</v>
       </c>
       <c r="E67" s="2" t="str">
@@ -4711,11 +4717,11 @@
         <v>73</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DM</v>
       </c>
       <c r="E68" s="2" t="str">
-        <f t="shared" ref="E68:E130" si="3">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A68&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B68&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C68&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D68&amp;$G$1&amp;"},"</f>
+        <f t="shared" ref="E68:E130" si="4">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A68&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B68&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C68&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D68&amp;$G$1&amp;"},"</f>
         <v>{"cluster":1,"name": "Deborah M", "memory": "Offshore coffees and photo walks","id":"DM"},</v>
       </c>
     </row>
@@ -4730,11 +4736,11 @@
         <v>476</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AG</v>
       </c>
       <c r="E69" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Alex G", "memory": "Hub afternoons probing a new and improved theory of capitalism ","id":"AG"},</v>
       </c>
     </row>
@@ -4749,11 +4755,11 @@
         <v>475</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>GY</v>
       </c>
       <c r="E70" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Gareth Y", "memory": "Fine beer and dialetheism","id":"GY"},</v>
       </c>
     </row>
@@ -4768,11 +4774,11 @@
         <v>539</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SR</v>
       </c>
       <c r="E71" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Sneha R", "memory": "FB camraderie London doldrums","id":"SR"},</v>
       </c>
     </row>
@@ -4787,11 +4793,11 @@
         <v>439</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CL</v>
       </c>
       <c r="E72" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Ciaran L", "memory": "Shouldering an infinite one night stand","id":"CL"},</v>
       </c>
     </row>
@@ -4806,11 +4812,11 @@
         <v>194</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AK</v>
       </c>
       <c r="E73" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Adam K", "memory": "Drums hit at Nice and Sleazy","id":"AK"},</v>
       </c>
     </row>
@@ -4825,11 +4831,11 @@
         <v>469</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SW</v>
       </c>
       <c r="E74" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Sam W", "memory": "Doublet think","id":"SW"},</v>
       </c>
     </row>
@@ -4844,11 +4850,11 @@
         <v>550</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SN</v>
       </c>
       <c r="E75" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":7,"name": "Sophia NB", "memory": "Scandi xmas architecture","id":"SN"},</v>
       </c>
     </row>
@@ -4863,11 +4869,11 @@
         <v>547</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>JR</v>
       </c>
       <c r="E76" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Julia R", "memory": "Celtic connections. Probably the first person I spoke to on the master's course","id":"JR"},</v>
       </c>
     </row>
@@ -4882,11 +4888,11 @@
         <v>466</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>RP</v>
       </c>
       <c r="E77" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Roxana P", "memory": "South bank graffiti analysis","id":"RP"},</v>
       </c>
     </row>
@@ -4901,11 +4907,11 @@
         <v>474</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>JC</v>
       </c>
       <c r="E78" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Joanne C", "memory": "Wedding photos and pastel bridesmaids","id":"JC"},</v>
       </c>
     </row>
@@ -4920,11 +4926,11 @@
         <v>461</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SJ</v>
       </c>
       <c r="E79" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Simon J", "memory": "Illuminati dominance by Gladstone Park","id":"SJ"},</v>
       </c>
     </row>
@@ -4939,11 +4945,11 @@
         <v>93</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MF</v>
       </c>
       <c r="E80" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Martha F", "memory": "The launch of HMS Defender on the Clyde","id":"MF"},</v>
       </c>
     </row>
@@ -4958,11 +4964,11 @@
         <v>441</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>LW</v>
       </c>
       <c r="E81" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Laura W", "memory": "Eng Lit dept lobby rounds round about Finnegans Wake","id":"LW"},</v>
       </c>
     </row>
@@ -4977,11 +4983,11 @@
         <v>174</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>RM</v>
       </c>
       <c r="E82" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Rachel M", "memory": "Rocky movie night in Hyndland","id":"RM"},</v>
       </c>
     </row>
@@ -4996,11 +5002,11 @@
         <v>495</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MF</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":5,"name": "Melissa F", "memory": "Total War Warhammer character art chat at Trondheim airport","id":"MF"},</v>
       </c>
     </row>
@@ -5015,11 +5021,11 @@
         <v>576</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>RM</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Rachel M", "memory": "Evenings of words and guitars and the flatmate towering above Byres Road","id":"RM"},</v>
       </c>
     </row>
@@ -5034,11 +5040,11 @@
         <v>460</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>OK</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Ol'ga K", "memory": "Men discovered to be like sand","id":"OK"},</v>
       </c>
     </row>
@@ -5053,11 +5059,11 @@
         <v>532</v>
       </c>
       <c r="D86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>RF</v>
       </c>
       <c r="E86" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Rhiannon F", "memory": "Buddhism was involved","id":"RF"},</v>
       </c>
     </row>
@@ -5072,11 +5078,11 @@
         <v>561</v>
       </c>
       <c r="D87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ST</v>
       </c>
       <c r="E87" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Stuart T", "memory": "Facebook meme machine","id":"ST"},</v>
       </c>
     </row>
@@ -5091,11 +5097,11 @@
         <v>442</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ND</v>
       </c>
       <c r="E88" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Nermin D", "memory": "Citysalsa surprise","id":"ND"},</v>
       </c>
     </row>
@@ -5110,11 +5116,11 @@
         <v>496</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>GK</v>
       </c>
       <c r="E89" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":5,"name": "Guy K", "memory": "Indie pub nights at the Crown","id":"GK"},</v>
       </c>
     </row>
@@ -5129,11 +5135,11 @@
         <v>195</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>LR</v>
       </c>
       <c r="E90" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Lil R", "memory": "Red Crossings","id":"LR"},</v>
       </c>
     </row>
@@ -5148,11 +5154,11 @@
         <v>467</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>JM</v>
       </c>
       <c r="E91" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Jenny M", "memory": "Communism will win","id":"JM"},</v>
       </c>
     </row>
@@ -5167,11 +5173,11 @@
         <v>449</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PG</v>
       </c>
       <c r="E92" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Paul G", "memory": "Science Made Us Robots at New Cross Inn","id":"PG"},</v>
       </c>
     </row>
@@ -5186,11 +5192,11 @@
         <v>163</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MW</v>
       </c>
       <c r="E93" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Megan W", "memory": "Bill Nighy, casually","id":"MW"},</v>
       </c>
     </row>
@@ -5205,11 +5211,11 @@
         <v>533</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>LG</v>
       </c>
       <c r="E94" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Lindsay G", "memory": "Gleefully pithy dispatches from Asia","id":"LG"},</v>
       </c>
     </row>
@@ -5224,11 +5230,11 @@
         <v>482</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KM</v>
       </c>
       <c r="E95" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Kate M", "memory": "A party on Royal Terrace with a keyboard and a ballerina, probably talking about Paris","id":"KM"},</v>
       </c>
     </row>
@@ -5243,11 +5249,11 @@
         <v>442</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PV</v>
       </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Paola V", "memory": "Citysalsa surprise","id":"PV"},</v>
       </c>
     </row>
@@ -5262,11 +5268,11 @@
         <v>183</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DC</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Donald C", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room","id":"DC"},</v>
       </c>
     </row>
@@ -5281,11 +5287,11 @@
         <v>562</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>YH</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Yosef H", "memory": "Planes above, paintings beyond","id":"YH"},</v>
       </c>
     </row>
@@ -5300,11 +5306,11 @@
         <v>520</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>GC</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "George C", "memory": "Collegial nights in the QMU lobby","id":"GC"},</v>
       </c>
     </row>
@@ -5319,11 +5325,11 @@
         <v>531</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IS</v>
       </c>
       <c r="E100" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":1,"name": "Isabel S", "memory": "Hauling planks to that allotment by train","id":"IS"},</v>
       </c>
     </row>
@@ -5338,11 +5344,11 @@
         <v>484</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MD</v>
       </c>
       <c r="E101" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":5,"name": "Matt D", "memory": "That strategy game you were showing in very early days at Google Campus","id":"MD"},</v>
       </c>
     </row>
@@ -5357,11 +5363,11 @@
         <v>559</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>IB</v>
       </c>
       <c r="E102" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Ioanna B", "memory": "That happy Greek unit 2009-10","id":"IB"},</v>
       </c>
     </row>
@@ -5376,11 +5382,11 @@
         <v>555</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AB</v>
       </c>
       <c r="E103" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Andrew B", "memory": "An introduction to the world of maps from the Moorgate Murray Hewitt","id":"AB"},</v>
       </c>
     </row>
@@ -5395,11 +5401,11 @@
         <v>180</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SH</v>
       </c>
       <c r="E104" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":7,"name": "Steve H", "memory": "Summertime barbecue and Rocket League","id":"SH"},</v>
       </c>
     </row>
@@ -5414,11 +5420,11 @@
         <v>497</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EG</v>
       </c>
       <c r="E105" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":5,"name": "Erlend G", "memory": "Metatron's cub in Yerba Buena embrace","id":"EG"},</v>
       </c>
     </row>
@@ -5433,11 +5439,11 @@
         <v>465</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CG</v>
       </c>
       <c r="E106" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":5,"name": "Catalin G", "memory": "Normand travel tales","id":"CG"},</v>
       </c>
     </row>
@@ -5452,11 +5458,11 @@
         <v>521</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CB</v>
       </c>
       <c r="E107" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Celia B", "memory": "Breaking bread at Empress place ","id":"CB"},</v>
       </c>
     </row>
@@ -5471,11 +5477,11 @@
         <v>498</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>GD</v>
       </c>
       <c r="E108" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Gerard D", "memory": "Atlas pints with the friendliest beard","id":"GD"},</v>
       </c>
     </row>
@@ -5490,11 +5496,11 @@
         <v>538</v>
       </c>
       <c r="D109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DM</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":5,"name": "Daniel M", "memory": "The Moonzooka song","id":"DM"},</v>
       </c>
     </row>
@@ -5509,11 +5515,11 @@
         <v>541</v>
       </c>
       <c r="D110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>KA</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Kareem A", "memory": "Xmas party and gin night at the Red Cross headquarters","id":"KA"},</v>
       </c>
     </row>
@@ -5528,11 +5534,11 @@
         <v>542</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>JM</v>
       </c>
       <c r="E111" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Joanne M", "memory": "Oman Court antipodean parties","id":"JM"},</v>
       </c>
     </row>
@@ -5547,11 +5553,11 @@
         <v>473</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CE</v>
       </c>
       <c r="E112" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Chris E", "memory": "Loving Om","id":"CE"},</v>
       </c>
     </row>
@@ -5566,11 +5572,11 @@
         <v>470</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AS</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Aniko S", "memory": "Translation talk at the CCA","id":"AS"},</v>
       </c>
     </row>
@@ -5585,11 +5591,11 @@
         <v>499</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HA</v>
       </c>
       <c r="E114" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Hani A", "memory": "New London Orchestration","id":"HA"},</v>
       </c>
     </row>
@@ -5604,11 +5610,11 @@
         <v>501</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>EM</v>
       </c>
       <c r="E115" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Euan M", "memory": "The history boys","id":"EM"},</v>
       </c>
     </row>
@@ -5623,11 +5629,11 @@
         <v>500</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AG</v>
       </c>
       <c r="E116" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Alejandro G", "memory": "Frantically filling in engineering job tests at Park View Road","id":"AG"},</v>
       </c>
     </row>
@@ -5642,11 +5648,11 @@
         <v>522</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SC</v>
       </c>
       <c r="E117" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Sebastian C", "memory": "Our walks to the big Tesco, your songs south of the river","id":"SC"},</v>
       </c>
     </row>
@@ -5661,11 +5667,11 @@
         <v>571</v>
       </c>
       <c r="D118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MS</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Melenia S", "memory": "Warming that London house ","id":"MS"},</v>
       </c>
     </row>
@@ -5680,11 +5686,11 @@
         <v>472</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>RK</v>
       </c>
       <c r="E119" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Radek K", "memory": "Smokes on the street with a trenchcoat","id":"RK"},</v>
       </c>
     </row>
@@ -5699,11 +5705,11 @@
         <v>575</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>GK</v>
       </c>
       <c r="E120" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Gunes K", "memory": "A new year's quantum tube ride and drinks in Barri Gotic","id":"GK"},</v>
       </c>
     </row>
@@ -5718,11 +5724,11 @@
         <v>523</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NS</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Niki S", "memory": "An afternoon from Assange to Zizek","id":"NS"},</v>
       </c>
     </row>
@@ -5737,11 +5743,11 @@
         <v>201</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>HH</v>
       </c>
       <c r="E122" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Henrietta H", "memory": "Nordic Society nights","id":"HH"},</v>
       </c>
     </row>
@@ -5756,11 +5762,11 @@
         <v>524</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SD</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Serena D", "memory": "A Glasgow party with two Italian friends","id":"SD"},</v>
       </c>
     </row>
@@ -5775,11 +5781,11 @@
         <v>471</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CL</v>
       </c>
       <c r="E124" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Csenge L", "memory": "Glasgow Street dissection of a King's Speech ","id":"CL"},</v>
       </c>
     </row>
@@ -5794,11 +5800,11 @@
         <v>462</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FC</v>
       </c>
       <c r="E125" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Freya C", "memory": "The well-tread Soviet corners of the library tower, vinyls in the woodlands ","id":"FC"},</v>
       </c>
     </row>
@@ -5813,11 +5819,11 @@
         <v>556</v>
       </c>
       <c r="D126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>SL</v>
       </c>
       <c r="E126" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":4,"name": "Stefania L", "memory": "Remote initiations into witchcraft","id":"SL"},</v>
       </c>
     </row>
@@ -5832,11 +5838,11 @@
         <v>563</v>
       </c>
       <c r="D127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>JB</v>
       </c>
       <c r="E127" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Jennifer B", "memory": "Powerpuff sister","id":"JB"},</v>
       </c>
     </row>
@@ -5851,11 +5857,11 @@
         <v>502</v>
       </c>
       <c r="D128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MD</v>
       </c>
       <c r="E128" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":6,"name": "Marie D", "memory": "Roots in bohemian prog rockiness","id":"MD"},</v>
       </c>
     </row>
@@ -5870,11 +5876,11 @@
         <v>530</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>AM</v>
       </c>
       <c r="E129" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":3,"name": "Ally M", "memory": "Best ever asymmetrical haircut for moving house using a pram","id":"AM"},</v>
       </c>
     </row>
@@ -5889,11 +5895,11 @@
         <v>144</v>
       </c>
       <c r="D130" t="str">
-        <f t="shared" ref="D130:D172" si="4">LEFT(B130,1)&amp;MID(B130,FIND(" ",B130)+1,1)</f>
+        <f t="shared" ref="D130:D173" si="5">LEFT(B130,1)&amp;MID(B130,FIND(" ",B130)+1,1)</f>
         <v>PT</v>
       </c>
       <c r="E130" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>{"cluster":2,"name": "Peter T", "memory": "Tchai Ovna chess afternoon","id":"PT"},</v>
       </c>
     </row>
@@ -5908,11 +5914,11 @@
         <v>507</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NE</v>
       </c>
       <c r="E131" s="2" t="str">
-        <f t="shared" ref="E131:E172" si="5">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A131&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B131&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C131&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D131&amp;$G$1&amp;"},"</f>
+        <f t="shared" ref="E131:E173" si="6">"{"&amp;$G$1&amp;$A$1&amp;$G$1&amp;":"&amp;A131&amp;","&amp;$G$1&amp;"name"&amp;$G$1&amp;": "&amp;$G$1&amp;B131&amp;$G$1&amp;", "&amp;$G$1&amp;$C$1&amp;$G$1&amp;": "&amp;$G$1&amp;C131&amp;$G$1&amp;","&amp;$G$1&amp;"id"&amp;$G$1&amp;":"&amp;$G$1&amp;D131&amp;$G$1&amp;"},"</f>
         <v>{"cluster":3,"name": "Nina E", "memory": "Talking translation at West Princes Street","id":"NE"},</v>
       </c>
     </row>
@@ -5927,11 +5933,11 @@
         <v>527</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>RD</v>
       </c>
       <c r="E132" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Rebecca D", "memory": "Moorgate coffee and walk, Borgesian dreams","id":"RD"},</v>
       </c>
     </row>
@@ -5946,11 +5952,11 @@
         <v>457</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>DF</v>
       </c>
       <c r="E133" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "David F", "memory": "The considerate stories on your blog","id":"DF"},</v>
       </c>
     </row>
@@ -5965,11 +5971,11 @@
         <v>168</v>
       </c>
       <c r="D134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BM</v>
       </c>
       <c r="E134" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Bahareh M", "memory": "Teatimes at Tchai Ovna","id":"BM"},</v>
       </c>
     </row>
@@ -5984,11 +5990,11 @@
         <v>169</v>
       </c>
       <c r="D135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="E135" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Nicholas A", "memory": "Science and scifi at the housewarming near Charing Cross","id":"NA"},</v>
       </c>
     </row>
@@ -6003,11 +6009,11 @@
         <v>572</v>
       </c>
       <c r="D136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>BL</v>
       </c>
       <c r="E136" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":6,"name": "Brenda L", "memory": "An introductin to the Cork lilt between classes","id":"BL"},</v>
       </c>
     </row>
@@ -6022,11 +6028,11 @@
         <v>565</v>
       </c>
       <c r="D137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EG</v>
       </c>
       <c r="E137" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":6,"name": "Emilie G", "memory": "Classic fringe","id":"EG"},</v>
       </c>
     </row>
@@ -6041,11 +6047,11 @@
         <v>564</v>
       </c>
       <c r="D138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>KK</v>
       </c>
       <c r="E138" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":6,"name": "Katharina K", "memory": "Freundliche Augen","id":"KK"},</v>
       </c>
     </row>
@@ -6060,11 +6066,11 @@
         <v>573</v>
       </c>
       <c r="D139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LB</v>
       </c>
       <c r="E139" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":6,"name": "Louise B", "memory": "And the Kaskeala connection","id":"LB"},</v>
       </c>
     </row>
@@ -6079,11 +6085,11 @@
         <v>546</v>
       </c>
       <c r="D140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>CA</v>
       </c>
       <c r="E140" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":6,"name": "Cari A", "memory": "Through-going Irish-American friendliness","id":"CA"},</v>
       </c>
     </row>
@@ -6098,11 +6104,11 @@
         <v>229</v>
       </c>
       <c r="D141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>JN</v>
       </c>
       <c r="E141" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "James N", "memory": "Newman's America","id":"JN"},</v>
       </c>
     </row>
@@ -6117,11 +6123,11 @@
         <v>464</v>
       </c>
       <c r="D142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>JB</v>
       </c>
       <c r="E142" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Jess B", "memory": "Kersland street sonic booms","id":"JB"},</v>
       </c>
     </row>
@@ -6136,11 +6142,11 @@
         <v>463</v>
       </c>
       <c r="D143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NR</v>
       </c>
       <c r="E143" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Nic R", "memory": "Kersland street movie making","id":"NR"},</v>
       </c>
     </row>
@@ -6155,11 +6161,11 @@
         <v>221</v>
       </c>
       <c r="D144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AT</v>
       </c>
       <c r="E144" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":4,"name": "Andromeda T", "memory": "Poetry read in the teahouse dark and warm","id":"AT"},</v>
       </c>
     </row>
@@ -6174,11 +6180,11 @@
         <v>545</v>
       </c>
       <c r="D145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>RG</v>
       </c>
       <c r="E145" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Richard G", "memory": "Showstealing the Robbers","id":"RG"},</v>
       </c>
     </row>
@@ -6193,11 +6199,11 @@
         <v>183</v>
       </c>
       <c r="D146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NM</v>
       </c>
       <c r="E146" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Neil M", "memory": "Scouring the depths of the American Revolution on sunny afternoons in Prof Newman's room","id":"NM"},</v>
       </c>
     </row>
@@ -6212,11 +6218,11 @@
         <v>227</v>
       </c>
       <c r="D147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>DA</v>
       </c>
       <c r="E147" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "David A", "memory": "Philosophy classes","id":"DA"},</v>
       </c>
     </row>
@@ -6231,11 +6237,11 @@
         <v>574</v>
       </c>
       <c r="D148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>LB</v>
       </c>
       <c r="E148" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Ljubo B", "memory": "Gifts of Kierkegaard in Summer","id":"LB"},</v>
       </c>
     </row>
@@ -6250,11 +6256,11 @@
         <v>229</v>
       </c>
       <c r="D149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FG</v>
       </c>
       <c r="E149" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Frazer G", "memory": "Newman's America","id":"FG"},</v>
       </c>
     </row>
@@ -6269,11 +6275,11 @@
         <v>508</v>
       </c>
       <c r="D150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AK</v>
       </c>
       <c r="E150" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":6,"name": "Azra K", "memory": "Crieff Hydro nights","id":"AK"},</v>
       </c>
     </row>
@@ -6288,11 +6294,11 @@
         <v>506</v>
       </c>
       <c r="D151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>DG</v>
       </c>
       <c r="E151" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Dana G", "memory": "Movie making moments","id":"DG"},</v>
       </c>
     </row>
@@ -6307,11 +6313,11 @@
         <v>525</v>
       </c>
       <c r="D152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>JM</v>
       </c>
       <c r="E152" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "John M", "memory": "Easy Argyle street mornings with the respective ladies","id":"JM"},</v>
       </c>
     </row>
@@ -6326,11 +6332,11 @@
         <v>455</v>
       </c>
       <c r="D153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>MH</v>
       </c>
       <c r="E153" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":1,"name": "Maciej H", "memory": "Magically early morning hellos on Byres' Road","id":"MH"},</v>
       </c>
     </row>
@@ -6345,11 +6351,11 @@
         <v>229</v>
       </c>
       <c r="D154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AS</v>
       </c>
       <c r="E154" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Annabel S", "memory": "Newman's America","id":"AS"},</v>
       </c>
     </row>
@@ -6364,11 +6370,11 @@
         <v>456</v>
       </c>
       <c r="D155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>RJ</v>
       </c>
       <c r="E155" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Rob J", "memory": "GoldenEye at the Joneses","id":"RJ"},</v>
       </c>
     </row>
@@ -6383,11 +6389,11 @@
         <v>454</v>
       </c>
       <c r="D156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>RR</v>
       </c>
       <c r="E156" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Roosa R", "memory": "Eurotrash party popping","id":"RR"},</v>
       </c>
     </row>
@@ -6402,11 +6408,11 @@
         <v>229</v>
       </c>
       <c r="D157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>RJ</v>
       </c>
       <c r="E157" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Robert J", "memory": "Newman's America","id":"RJ"},</v>
       </c>
     </row>
@@ -6421,11 +6427,11 @@
         <v>453</v>
       </c>
       <c r="D158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>KH</v>
       </c>
       <c r="E158" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Kieran H", "memory": "Revue around Colebrooke","id":"KH"},</v>
       </c>
     </row>
@@ -6440,11 +6446,11 @@
         <v>481</v>
       </c>
       <c r="D159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AF</v>
       </c>
       <c r="E159" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Adam Fa", "memory": "Newcastle house party. Talking late and sleeping on the floor","id":"AF"},</v>
       </c>
     </row>
@@ -6459,11 +6465,11 @@
         <v>536</v>
       </c>
       <c r="D160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>GS</v>
       </c>
       <c r="E160" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "George S", "memory": "Boyd Orr banter","id":"GS"},</v>
       </c>
     </row>
@@ -6478,11 +6484,11 @@
         <v>543</v>
       </c>
       <c r="D161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>PF</v>
       </c>
       <c r="E161" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Pascale F", "memory": "Tea house poetry nights ","id":"PF"},</v>
       </c>
     </row>
@@ -6497,11 +6503,11 @@
         <v>245</v>
       </c>
       <c r="D162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>HR</v>
       </c>
       <c r="E162" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Helen R", "memory": "Candy store smiles off Byres' road","id":"HR"},</v>
       </c>
     </row>
@@ -6516,11 +6522,11 @@
         <v>560</v>
       </c>
       <c r="D163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>KT</v>
       </c>
       <c r="E163" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":3,"name": "Kyle T", "memory": "In comp lit lit","id":"KT"},</v>
       </c>
     </row>
@@ -6535,11 +6541,11 @@
         <v>452</v>
       </c>
       <c r="D164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>MC</v>
       </c>
       <c r="E164" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":1,"name": "Maitiu C", "memory": "Pre-historical catch-ups near WILT","id":"MC"},</v>
       </c>
     </row>
@@ -6554,11 +6560,11 @@
         <v>251</v>
       </c>
       <c r="D165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>EY</v>
       </c>
       <c r="E165" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Eileen Y", "memory": "Your mother opting to use her voice over the buzzer as the most effective way to get into the, from the street to our second floor flat ","id":"EY"},</v>
       </c>
     </row>
@@ -6573,11 +6579,11 @@
         <v>503</v>
       </c>
       <c r="D166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>JF</v>
       </c>
       <c r="E166" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "James F", "memory": "And one of the wildest backstories for a book. Poetry nights at the QMU?","id":"JF"},</v>
       </c>
     </row>
@@ -6592,11 +6598,11 @@
         <v>526</v>
       </c>
       <c r="D167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>JI</v>
       </c>
       <c r="E167" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":2,"name": "Jarkko I", "memory": "House parties of the Finnish sect","id":"JI"},</v>
       </c>
     </row>
@@ -6611,11 +6617,11 @@
         <v>450</v>
       </c>
       <c r="D168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>JW</v>
       </c>
       <c r="E168" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":1,"name": "Joe W", "memory": "Protesting for tutor and teacher rights down by Dumbarton Road","id":"JW"},</v>
       </c>
     </row>
@@ -6630,11 +6636,11 @@
         <v>451</v>
       </c>
       <c r="D169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>AB</v>
       </c>
       <c r="E169" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":1,"name": "Amy B", "memory": "Fencing off 2005","id":"AB"},</v>
       </c>
     </row>
@@ -6649,11 +6655,11 @@
         <v>259</v>
       </c>
       <c r="D170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>JW</v>
       </c>
       <c r="E170" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":1,"name": "Jessica W", "memory": "Exploring Edinburgh of all places in about 2006","id":"JW"},</v>
       </c>
     </row>
@@ -6668,11 +6674,11 @@
         <v>260</v>
       </c>
       <c r="D171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>FA</v>
       </c>
       <c r="E171" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>{"cluster":1,"name": "Francesca A", "memory": "Refugeed on your London floor with the drumkit in 2008 ","id":"FA"},</v>
       </c>
     </row>
@@ -6687,12 +6693,31 @@
         <v>504</v>
       </c>
       <c r="D172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>SM</v>
       </c>
       <c r="E172" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>{"cluster":2,"name": "Stuart M", "memory": "From QMU camraderie to a photo deluge from Japan, cycling in the countryside","id":"SM"},</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>578</v>
+      </c>
+      <c r="C173" t="s">
+        <v>579</v>
+      </c>
+      <c r="D173" t="str">
         <f t="shared" si="5"/>
-        <v>{"cluster":2,"name": "Stuart M", "memory": "From QMU camraderie to a photo deluge from Japan, cycling in the countryside","id":"SM"},</v>
+        <v>WC</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>{"cluster":1,"name": "William C", "memory": "Chez adventures in the nude drawing class","id":"WC"},</v>
       </c>
     </row>
   </sheetData>
